--- a/UBP_Price.xlsx
+++ b/UBP_Price.xlsx
@@ -5,13 +5,13 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universalbeauty-my.sharepoint.com/personal/y_lee_universalbeauty_com/Documents/YoungSunLee/Develop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universalbeauty-my.sharepoint.com/personal/y_lee_universalbeauty_com/Documents/YoungSunLee/Develop/pricecheck/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="13_ncr:1_{C6E1EF5F-EB3B-4A2E-B585-713F8DC921B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D756698C-067E-4C08-99AD-9352BC18D90A}"/>
+  <xr:revisionPtr revIDLastSave="266" documentId="13_ncr:1_{C6E1EF5F-EB3B-4A2E-B585-713F8DC921B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3A986DA-D0FD-4F2B-877F-7DB06D502B92}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="xMlbkVgEYdbNt8XNXb904/OTKStnT1oYipsyvbCSPSD2ZyYnVLA5+fpc4y/VML89uEXW3cF0TFK4lL5tiWBu/g==" workbookSaltValue="ue4sEoZM8J1R/3cERSsfXA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8865" yWindow="870" windowWidth="19425" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Distributor" sheetId="2" r:id="rId1"/>
@@ -550,18 +550,6 @@
     <t>VIA Premium Styling Gel Protrin with Camellia Oil 20oz</t>
   </si>
   <si>
-    <t>JML Braids Your Way! Small Small</t>
-  </si>
-  <si>
-    <t>JML Braids Your Way! Large Large</t>
-  </si>
-  <si>
-    <t>Via Freestyle Small Small</t>
-  </si>
-  <si>
-    <t>Via Freestyle Large Large</t>
-  </si>
-  <si>
     <t>Beard Guyz Beard Oil 2oz</t>
   </si>
   <si>
@@ -607,192 +595,12 @@
     <t>Beard Guyz Beard Conditioner 8oz</t>
   </si>
   <si>
-    <t>5.5oz JML Shea Butter Conditioning Shine 5.5oz</t>
-  </si>
-  <si>
-    <t>6oz JML Blax Black Wax 6oz</t>
-  </si>
-  <si>
-    <t>8oz JML Tingle Shampoo 8oz</t>
-  </si>
-  <si>
-    <t>16oz JML Tingle Shampoo 16oz</t>
-  </si>
-  <si>
-    <t>8oz JML Protein Conditioner 8oz</t>
-  </si>
-  <si>
-    <t>16oz JML Protein Conditioner 16oz</t>
-  </si>
-  <si>
-    <t>8oz JML No More Itch Gro Spray 8oz</t>
-  </si>
-  <si>
-    <t>16oz JML No More Itch Gro Spray 16oz</t>
-  </si>
-  <si>
     <t>Maximum Relief No More Itch Gro Spray - Mentholated 8oz</t>
   </si>
   <si>
     <t>Maximum Relief No More Itch Gro Spray - Mentholated 16oz</t>
   </si>
   <si>
-    <t>8oz JML Island Oil 8oz</t>
-  </si>
-  <si>
-    <t>8oz JML Lock &amp; Set Styling Lotion 8oz</t>
-  </si>
-  <si>
-    <t>8oz JML Braid Twist Remover 8oz</t>
-  </si>
-  <si>
-    <t>6oz JML Sproil Spray Oil 6oz</t>
-  </si>
-  <si>
-    <t>8oz JML Mango &amp; Shea Butter Lotion 8oz</t>
-  </si>
-  <si>
-    <t>6oz. JML Locking Gel 6oz</t>
-  </si>
-  <si>
-    <t>16oz JML Locking Gel 16oz</t>
-  </si>
-  <si>
-    <t>6oz JML Locking Gel - Resistant Formula 6oz</t>
-  </si>
-  <si>
-    <t>16oz JML Locking Gel - Resistant Formula 16oz</t>
-  </si>
-  <si>
-    <t>6oz JML Lock Gro 6oz</t>
-  </si>
-  <si>
-    <t>16oz JML Lock Gro 16oz</t>
-  </si>
-  <si>
-    <t>5.5oz JML Locking Crème Wax 5.5oz</t>
-  </si>
-  <si>
-    <t>13.4oz JML Locking Crème Wax 13.4oz</t>
-  </si>
-  <si>
-    <t>6oz JML Locking Firm Wax 6oz</t>
-  </si>
-  <si>
-    <t>16oz JML Locking Firm Wax 16oz</t>
-  </si>
-  <si>
-    <t>6oz JML No More Itch Cool Scalp - Mentholated 6oz</t>
-  </si>
-  <si>
-    <t>16oz JML No More Itch Cool Scalp - Mentholated 16oz</t>
-  </si>
-  <si>
-    <t>4oz JML Hair N' Cense 4oz</t>
-  </si>
-  <si>
-    <t>4oz JML Shine-A-Loc 4oz</t>
-  </si>
-  <si>
-    <t>4oz JML Cactus Oil 4oz</t>
-  </si>
-  <si>
-    <t>8oz JML Cactus Leave-in Moisturizer 8oz</t>
-  </si>
-  <si>
-    <t>6oz JML Cactus Gro 6oz</t>
-  </si>
-  <si>
-    <t>4oz JML Cactus Oil Serum 4oz</t>
-  </si>
-  <si>
-    <t>8oz JML JBCO Sulfate-Free Moisture Rich Shampoo 8oz</t>
-  </si>
-  <si>
-    <t>8oz JML JBCO Paraben-Free Moisture Rich Conditioner 8oz</t>
-  </si>
-  <si>
-    <t>2oz JML Jamaican Black Castor Oil - Original 2oz</t>
-  </si>
-  <si>
-    <t>2oz JML Jamaican Black Castor Oil - Coconut 2oz</t>
-  </si>
-  <si>
-    <t>2oz JML Jamaican Black Castor Oil - X Dark 2oz</t>
-  </si>
-  <si>
-    <t>2oz JML Jamaican Black Castor Oil - Argan 2oz</t>
-  </si>
-  <si>
-    <t>4oz JML Jamaican Black Castor Oil - Original 4oz</t>
-  </si>
-  <si>
-    <t>4oz JML Jamaican Black Castor Oil - Xtra Dark 4oz</t>
-  </si>
-  <si>
-    <t>4oz JML Jamaican Black Castor Oil - Lavender 4oz</t>
-  </si>
-  <si>
-    <t>4oz JML Jamaican Black Castor Oil - Rosemary 4oz</t>
-  </si>
-  <si>
-    <t>4oz JML Jamaican Black Castor Oil - Coconut 4oz</t>
-  </si>
-  <si>
-    <t>4oz JML Jamaican Black Castor Oil - Mango Papaya 4oz</t>
-  </si>
-  <si>
-    <t>4oz JML Jamaican Black Castor Oil - Argan 4oz</t>
-  </si>
-  <si>
-    <t>4oz JML Jamaican Black Castor Oil - Amla 4oz</t>
-  </si>
-  <si>
-    <t>4oz JML Jamaican Black Castor Oil - Lemon Grass 4oz</t>
-  </si>
-  <si>
-    <t>4oz JML Jamaican Black Castor Oil - Tea Tree 4oz</t>
-  </si>
-  <si>
-    <t>4oz JML Jamaican Black Castor Oil - Vitamins A,D &amp; E 4oz</t>
-  </si>
-  <si>
-    <t>4oz JML Jamaican Black Castor Oil - Peppermint 4oz</t>
-  </si>
-  <si>
-    <t>8oz. JML Jamaican Black Castor Oil - Original 8oz</t>
-  </si>
-  <si>
-    <t>8oz. JML Jamaican Black Castor Oil - Extre Dark 8oz</t>
-  </si>
-  <si>
-    <t>8oz. JML Jamaican Black Castor Oil - Coconut 8oz</t>
-  </si>
-  <si>
-    <t>8oz SHINE MOLDING MOUSSE 8oz</t>
-  </si>
-  <si>
-    <t>8 OZ JML  QUICK &amp; EASY BRAID TAKEDOWN 8oz</t>
-  </si>
-  <si>
-    <t>8 OZ JML 6-N-1 BRAID REFRESHER 8oz</t>
-  </si>
-  <si>
-    <t>8 OZ JML DRY WASH 8oz</t>
-  </si>
-  <si>
-    <t>8 OZ JML EXTRA HOLD &amp; EASY BRAID GEL 8oz</t>
-  </si>
-  <si>
-    <t>4 OZ BRAID ELIXIR OIL 4oz</t>
-  </si>
-  <si>
-    <t>JML Loc Unloc 16oz 16oz</t>
-  </si>
-  <si>
-    <t>5-N-1 Loc Down 16oz 16oz</t>
-  </si>
-  <si>
     <t>JML Boho Detangler (12) 4oz</t>
   </si>
   <si>
@@ -802,69 +610,6 @@
     <t>20oz Island Oil Styling Jel 20oz</t>
   </si>
   <si>
-    <t>4oz Revita-Edge 4oz</t>
-  </si>
-  <si>
-    <t>4oz On The Spot Itch Relief Scalp Medicine Drops 4oz</t>
-  </si>
-  <si>
-    <t>8oz Growthick Hair Fattening Shampoo 8oz</t>
-  </si>
-  <si>
-    <t>8oz Feather Lite Volumizing Conditioner 8oz</t>
-  </si>
-  <si>
-    <t>4oz Medigro Ice Oil 4oz</t>
-  </si>
-  <si>
-    <t>4oz Moleculizing Root Lifter 4oz</t>
-  </si>
-  <si>
-    <t>8oz Grotivator Growth Moisturizing Lotion 8oz</t>
-  </si>
-  <si>
-    <t>6oz Hair Gro-n-Wild 6oz</t>
-  </si>
-  <si>
-    <t>4oz.Refreshing Daily Scalp Tonic 4oz</t>
-  </si>
-  <si>
-    <t>6oz Head Full of Hair 6oz</t>
-  </si>
-  <si>
-    <t>2oz Protective Shield Transparent 2oz</t>
-  </si>
-  <si>
-    <t>8oz Protective Shield Transparent 8oz</t>
-  </si>
-  <si>
-    <t>2oz Protective Shield Kharkoal 2oz</t>
-  </si>
-  <si>
-    <t>8oz Protective Shield Kharkoal 8oz</t>
-  </si>
-  <si>
-    <t>JML Tingle Shampoo  2oz</t>
-  </si>
-  <si>
-    <t>JML Protein Conditioner 2oz</t>
-  </si>
-  <si>
-    <t>JML Island Oil   2oz</t>
-  </si>
-  <si>
-    <t>JML No More Itch Gro Spray 2oz</t>
-  </si>
-  <si>
-    <t>JML 5-N-1 Loc Down 1.5oz</t>
-  </si>
-  <si>
-    <t>JML Mousse 1.7oz</t>
-  </si>
-  <si>
-    <t>JML Dry Wash 1.7oz</t>
-  </si>
-  <si>
     <t>SALON PRO  Hair Bonding Glue 1oz</t>
   </si>
   <si>
@@ -922,9 +667,6 @@
     <t>BRAID SHEEN SPRAY 12oz</t>
   </si>
   <si>
-    <t>WRAP/SET LOTION 4oz</t>
-  </si>
-  <si>
     <t>CONTROL WIG SPRAY ( 3 in 1 ) 4oz</t>
   </si>
   <si>
@@ -958,15 +700,6 @@
     <t>Herbal Oil Drop 4oz</t>
   </si>
   <si>
-    <t xml:space="preserve">N/SHAMPOO 8oz </t>
-  </si>
-  <si>
-    <t>SP Braid Sheen Spray-Argan 12oz</t>
-  </si>
-  <si>
-    <t>SP Braid Sheen Spray-Keratin 12oz</t>
-  </si>
-  <si>
     <t>HAIR FOOD MOROCCAN ARGAN OIL 4oz</t>
   </si>
   <si>
@@ -1184,6 +917,273 @@
   </si>
   <si>
     <t>30 SEC STRIP EYELASH ADHESIVE DARK (BULK) (36) 0.25oz</t>
+  </si>
+  <si>
+    <t>JML Locking Gel 6oz</t>
+  </si>
+  <si>
+    <t>JML Locking Gel 16oz</t>
+  </si>
+  <si>
+    <t>JML Locking Gel - Resistant Formula 6oz</t>
+  </si>
+  <si>
+    <t>JML Shea Butter Conditioning Shine 5.5oz</t>
+  </si>
+  <si>
+    <t>JML Blax Black Wax 6oz</t>
+  </si>
+  <si>
+    <t>JML Tingle Shampoo 8oz</t>
+  </si>
+  <si>
+    <t>JML Tingle Shampoo 16oz</t>
+  </si>
+  <si>
+    <t>JML Protein Conditioner 8oz</t>
+  </si>
+  <si>
+    <t>JML Protein Conditioner 16oz</t>
+  </si>
+  <si>
+    <t>JML No More Itch Gro Spray 8oz</t>
+  </si>
+  <si>
+    <t>JML No More Itch Gro Spray 16oz</t>
+  </si>
+  <si>
+    <t>JML Island Oil 8oz</t>
+  </si>
+  <si>
+    <t>JML Lock &amp; Set Styling Lotion 8oz</t>
+  </si>
+  <si>
+    <t>JML Braid Twist Remover 8oz</t>
+  </si>
+  <si>
+    <t>JML Sproil Spray Oil 6oz</t>
+  </si>
+  <si>
+    <t>JML Mango &amp; Shea Butter Lotion 8oz</t>
+  </si>
+  <si>
+    <t>JML Locking Gel - Resistant Formula 16oz</t>
+  </si>
+  <si>
+    <t>JML Lock Gro 6oz</t>
+  </si>
+  <si>
+    <t>JML Lock Gro 16oz</t>
+  </si>
+  <si>
+    <t>JML Locking Crème Wax 5.5oz</t>
+  </si>
+  <si>
+    <t>JML Locking Crème Wax 13.4oz</t>
+  </si>
+  <si>
+    <t>JML Locking Firm Wax 6oz</t>
+  </si>
+  <si>
+    <t>JML Locking Firm Wax 16oz</t>
+  </si>
+  <si>
+    <t>JML No More Itch Cool Scalp - Mentholated 6oz</t>
+  </si>
+  <si>
+    <t>JML No More Itch Cool Scalp - Mentholated 16oz</t>
+  </si>
+  <si>
+    <t>JML Hair N' Cense 4oz</t>
+  </si>
+  <si>
+    <t>JML Shine-A-Loc 4oz</t>
+  </si>
+  <si>
+    <t>JML Cactus Oil 4oz</t>
+  </si>
+  <si>
+    <t>JML Cactus Leave-in Moisturizer 8oz</t>
+  </si>
+  <si>
+    <t>JML Cactus Gro 6oz</t>
+  </si>
+  <si>
+    <t>JML Cactus Oil Serum 4oz</t>
+  </si>
+  <si>
+    <t>JML JBCO Sulfate-Free Moisture Rich Shampoo 8oz</t>
+  </si>
+  <si>
+    <t>JML JBCO Paraben-Free Moisture Rich Conditioner 8oz</t>
+  </si>
+  <si>
+    <t>JML Jamaican Black Castor Oil - Original 2oz</t>
+  </si>
+  <si>
+    <t>JML Jamaican Black Castor Oil - Coconut 2oz</t>
+  </si>
+  <si>
+    <t>JML Jamaican Black Castor Oil - X Dark 2oz</t>
+  </si>
+  <si>
+    <t>JML Jamaican Black Castor Oil - Argan 2oz</t>
+  </si>
+  <si>
+    <t>JML Jamaican Black Castor Oil - Original 4oz</t>
+  </si>
+  <si>
+    <t>JML Jamaican Black Castor Oil - Xtra Dark 4oz</t>
+  </si>
+  <si>
+    <t>JML Jamaican Black Castor Oil - Lavender 4oz</t>
+  </si>
+  <si>
+    <t>JML Jamaican Black Castor Oil - Rosemary 4oz</t>
+  </si>
+  <si>
+    <t>JML Jamaican Black Castor Oil - Coconut 4oz</t>
+  </si>
+  <si>
+    <t>JML Jamaican Black Castor Oil - Mango Papaya 4oz</t>
+  </si>
+  <si>
+    <t>JML Jamaican Black Castor Oil - Argan 4oz</t>
+  </si>
+  <si>
+    <t>JML Jamaican Black Castor Oil - Amla 4oz</t>
+  </si>
+  <si>
+    <t>JML Jamaican Black Castor Oil - Lemon Grass 4oz</t>
+  </si>
+  <si>
+    <t>JML Jamaican Black Castor Oil - Tea Tree 4oz</t>
+  </si>
+  <si>
+    <t>JML Jamaican Black Castor Oil - Vitamins A,D &amp; E 4oz</t>
+  </si>
+  <si>
+    <t>JML Jamaican Black Castor Oil - Peppermint 4oz</t>
+  </si>
+  <si>
+    <t>JML Jamaican Black Castor Oil - Original 8oz</t>
+  </si>
+  <si>
+    <t>JML Jamaican Black Castor Oil - Extre Dark 8oz</t>
+  </si>
+  <si>
+    <t>JML Jamaican Black Castor Oil - Coconut 8oz</t>
+  </si>
+  <si>
+    <t>BRAIDS YOUR WAY SHINE MOLDING MOUSSE 8oz</t>
+  </si>
+  <si>
+    <t>BRAIDS YOUR WAY QUICK &amp; EASY BRAID TAKEDOWN 8oz</t>
+  </si>
+  <si>
+    <t>BRAIDS YOUR WAY 6-N-1 BRAID REFRESHER 8oz</t>
+  </si>
+  <si>
+    <t>BRAIDS YOUR WAY DRY WASH 8oz</t>
+  </si>
+  <si>
+    <t>BRAIDS YOUR WAY EXTRA HOLD &amp; EASY BRAID GEL 8oz</t>
+  </si>
+  <si>
+    <t>BRAIDS YOUR WAY ELIXIR OIL 4oz</t>
+  </si>
+  <si>
+    <t>JML Loc Unloc 16oz</t>
+  </si>
+  <si>
+    <t>5-N-1 Loc Down 16oz</t>
+  </si>
+  <si>
+    <t>GROGANICS Revita-Edge 4oz</t>
+  </si>
+  <si>
+    <t>GROGANICS On The Spot Itch Relief Scalp Medicine Drops 4oz</t>
+  </si>
+  <si>
+    <t>GROGANICS Growthick Hair Fattening Shampoo 8oz</t>
+  </si>
+  <si>
+    <t>GROGANICS Feather Lite Volumizing Conditioner 8oz</t>
+  </si>
+  <si>
+    <t>GROGANICS Medigro Ice Oil 4oz</t>
+  </si>
+  <si>
+    <t>GROGANICS Moleculizing Root Lifter 4oz</t>
+  </si>
+  <si>
+    <t>GROGANICS Grotivator Growth Moisturizing Lotion 8oz</t>
+  </si>
+  <si>
+    <t>GROGANICS Hair Gro-n-Wild 6oz</t>
+  </si>
+  <si>
+    <t>GROGANICS Refreshing Daily Scalp Tonic 4oz</t>
+  </si>
+  <si>
+    <t>GROGANICS Head Full of Hair 6oz</t>
+  </si>
+  <si>
+    <t>ROBERT'S DIAMOND BOND Protective Shield Transparent 2oz</t>
+  </si>
+  <si>
+    <t>ROBERT'S DIAMOND BOND Protective Shield Transparent 8oz</t>
+  </si>
+  <si>
+    <t>ROBERT'S DIAMOND BOND Protective Shield Kharkoal 2oz</t>
+  </si>
+  <si>
+    <t>ROBERT'S DIAMOND BOND Protective Shield Kharkoal 8oz</t>
+  </si>
+  <si>
+    <t>JML TRAVEL SIZES Tingle Shampoo  2oz</t>
+  </si>
+  <si>
+    <t>JML TRAVEL SIZES Protein Conditioner 2oz</t>
+  </si>
+  <si>
+    <t>JML TRAVEL SIZES Island Oil   2oz</t>
+  </si>
+  <si>
+    <t>JML TRAVEL SIZES No More Itch Gro Spray 2oz</t>
+  </si>
+  <si>
+    <t>JML TRAVEL SIZES 5-N-1 Loc Down 1.5oz</t>
+  </si>
+  <si>
+    <t>JML TRAVEL SIZES Mousse 1.7oz</t>
+  </si>
+  <si>
+    <t>JML TRAVEL SIZES Dry Wash 1.7oz</t>
+  </si>
+  <si>
+    <t>WRAP SET LOTION 4oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEUTRALIZING SHAMPOO 8oz </t>
+  </si>
+  <si>
+    <t>SP Braid Sheen Spray - Argan 12oz</t>
+  </si>
+  <si>
+    <t>SP Braid Sheen Spray - Keratin 12oz</t>
+  </si>
+  <si>
+    <t>HOT WATER DIPPER JAR Via Freestyle Large</t>
+  </si>
+  <si>
+    <t>HOT WATER DIPPER JAR Via Freestyle Small</t>
+  </si>
+  <si>
+    <t>HOT WATER DIPPER JAR JML Braids Your Way! Large</t>
+  </si>
+  <si>
+    <t>HOT WATER DIPPER JAR JML Braids Your Way! Small</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1412,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1706,10 +1706,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1756,6 +1752,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2064,8 +2068,8 @@
   <dimension ref="A1:I242"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M44" sqref="M44"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B219" sqref="B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2116,7 +2120,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="68" t="s">
-        <v>188</v>
+        <v>295</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>9</v>
@@ -2145,7 +2149,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>189</v>
+        <v>296</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>11</v>
@@ -2174,7 +2178,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="68" t="s">
-        <v>190</v>
+        <v>297</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>13</v>
@@ -2203,7 +2207,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>191</v>
+        <v>298</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>15</v>
@@ -2232,7 +2236,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>192</v>
+        <v>299</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>13</v>
@@ -2261,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>193</v>
+        <v>300</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>15</v>
@@ -2290,7 +2294,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>194</v>
+        <v>301</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>13</v>
@@ -2319,7 +2323,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>195</v>
+        <v>302</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>15</v>
@@ -2348,7 +2352,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>13</v>
@@ -2377,7 +2381,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>15</v>
@@ -2406,7 +2410,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>198</v>
+        <v>303</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>13</v>
@@ -2435,7 +2439,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>199</v>
+        <v>304</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>13</v>
@@ -2464,7 +2468,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>200</v>
+        <v>305</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>13</v>
@@ -2493,7 +2497,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="68" t="s">
-        <v>201</v>
+        <v>306</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>11</v>
@@ -2522,7 +2526,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="68" t="s">
-        <v>202</v>
+        <v>307</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>13</v>
@@ -2551,7 +2555,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="68" t="s">
-        <v>203</v>
+        <v>292</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>11</v>
@@ -2580,7 +2584,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="68" t="s">
-        <v>204</v>
+        <v>293</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>15</v>
@@ -2609,7 +2613,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>205</v>
+        <v>294</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>11</v>
@@ -2638,7 +2642,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="68" t="s">
-        <v>206</v>
+        <v>308</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>15</v>
@@ -2667,7 +2671,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="68" t="s">
-        <v>207</v>
+        <v>309</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>11</v>
@@ -2696,7 +2700,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>208</v>
+        <v>310</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>15</v>
@@ -2725,7 +2729,7 @@
         <v>33</v>
       </c>
       <c r="B23" s="68" t="s">
-        <v>209</v>
+        <v>311</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>9</v>
@@ -2754,7 +2758,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="68" t="s">
-        <v>210</v>
+        <v>312</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>35</v>
@@ -2783,7 +2787,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="68" t="s">
-        <v>211</v>
+        <v>313</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>11</v>
@@ -2812,7 +2816,7 @@
         <v>37</v>
       </c>
       <c r="B26" s="68" t="s">
-        <v>212</v>
+        <v>314</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>15</v>
@@ -2841,7 +2845,7 @@
         <v>38</v>
       </c>
       <c r="B27" s="68" t="s">
-        <v>213</v>
+        <v>315</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>11</v>
@@ -2870,7 +2874,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="68" t="s">
-        <v>214</v>
+        <v>316</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>15</v>
@@ -2899,7 +2903,7 @@
         <v>40</v>
       </c>
       <c r="B29" s="68" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>41</v>
@@ -2928,7 +2932,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="68" t="s">
-        <v>216</v>
+        <v>318</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>41</v>
@@ -2957,7 +2961,7 @@
         <v>43</v>
       </c>
       <c r="B31" s="68" t="s">
-        <v>217</v>
+        <v>319</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>41</v>
@@ -2986,7 +2990,7 @@
         <v>44</v>
       </c>
       <c r="B32" s="68" t="s">
-        <v>218</v>
+        <v>320</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>13</v>
@@ -3015,7 +3019,7 @@
         <v>45</v>
       </c>
       <c r="B33" s="68" t="s">
-        <v>219</v>
+        <v>321</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>11</v>
@@ -3044,7 +3048,7 @@
         <v>46</v>
       </c>
       <c r="B34" s="68" t="s">
-        <v>220</v>
+        <v>322</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>41</v>
@@ -3073,7 +3077,7 @@
         <v>47</v>
       </c>
       <c r="B35" s="68" t="s">
-        <v>221</v>
+        <v>323</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>13</v>
@@ -3102,7 +3106,7 @@
         <v>48</v>
       </c>
       <c r="B36" s="68" t="s">
-        <v>222</v>
+        <v>324</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>13</v>
@@ -3131,7 +3135,7 @@
         <v>49</v>
       </c>
       <c r="B37" s="68" t="s">
-        <v>223</v>
+        <v>325</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>50</v>
@@ -3160,7 +3164,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="68" t="s">
-        <v>224</v>
+        <v>326</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>50</v>
@@ -3189,7 +3193,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="68" t="s">
-        <v>225</v>
+        <v>327</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>50</v>
@@ -3218,7 +3222,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="68" t="s">
-        <v>226</v>
+        <v>328</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>50</v>
@@ -3247,7 +3251,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="68" t="s">
-        <v>227</v>
+        <v>329</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>41</v>
@@ -3276,7 +3280,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="68" t="s">
-        <v>228</v>
+        <v>330</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>41</v>
@@ -3305,7 +3309,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="68" t="s">
-        <v>229</v>
+        <v>331</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>41</v>
@@ -3334,7 +3338,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="68" t="s">
-        <v>230</v>
+        <v>332</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>41</v>
@@ -3363,7 +3367,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="68" t="s">
-        <v>231</v>
+        <v>333</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>41</v>
@@ -3392,7 +3396,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="68" t="s">
-        <v>232</v>
+        <v>334</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>41</v>
@@ -3421,7 +3425,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="68" t="s">
-        <v>233</v>
+        <v>335</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>41</v>
@@ -3450,7 +3454,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="68" t="s">
-        <v>234</v>
+        <v>336</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>41</v>
@@ -3479,7 +3483,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="68" t="s">
-        <v>235</v>
+        <v>337</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>41</v>
@@ -3508,7 +3512,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="68" t="s">
-        <v>236</v>
+        <v>338</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>41</v>
@@ -3537,7 +3541,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="68" t="s">
-        <v>237</v>
+        <v>339</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>41</v>
@@ -3566,7 +3570,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="68" t="s">
-        <v>238</v>
+        <v>340</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>41</v>
@@ -3595,7 +3599,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="68" t="s">
-        <v>239</v>
+        <v>341</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>67</v>
@@ -3624,7 +3628,7 @@
         <v>68</v>
       </c>
       <c r="B54" s="68" t="s">
-        <v>240</v>
+        <v>342</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>67</v>
@@ -3653,7 +3657,7 @@
         <v>69</v>
       </c>
       <c r="B55" s="68" t="s">
-        <v>241</v>
+        <v>343</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>67</v>
@@ -3682,7 +3686,7 @@
         <v>81015</v>
       </c>
       <c r="B56" s="72" t="s">
-        <v>242</v>
+        <v>344</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>13</v>
@@ -3711,7 +3715,7 @@
         <v>81016</v>
       </c>
       <c r="B57" s="72" t="s">
-        <v>243</v>
+        <v>345</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>13</v>
@@ -3740,7 +3744,7 @@
         <v>81017</v>
       </c>
       <c r="B58" s="72" t="s">
-        <v>244</v>
+        <v>346</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>13</v>
@@ -3769,7 +3773,7 @@
         <v>81018</v>
       </c>
       <c r="B59" s="72" t="s">
-        <v>245</v>
+        <v>347</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>13</v>
@@ -3798,7 +3802,7 @@
         <v>81019</v>
       </c>
       <c r="B60" s="72" t="s">
-        <v>246</v>
+        <v>348</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>13</v>
@@ -3827,7 +3831,7 @@
         <v>81022</v>
       </c>
       <c r="B61" s="72" t="s">
-        <v>247</v>
+        <v>349</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>41</v>
@@ -3879,7 +3883,7 @@
         <v>81921</v>
       </c>
       <c r="B63" s="72" t="s">
-        <v>248</v>
+        <v>350</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>15</v>
@@ -3908,7 +3912,7 @@
         <v>81034</v>
       </c>
       <c r="B64" s="73" t="s">
-        <v>249</v>
+        <v>351</v>
       </c>
       <c r="C64" s="25" t="s">
         <v>15</v>
@@ -3933,11 +3937,11 @@
       </c>
     </row>
     <row r="65" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="20">
+      <c r="A65" s="24">
         <v>81976</v>
       </c>
       <c r="B65" s="73" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="C65" s="25" t="s">
         <v>41</v>
@@ -3957,33 +3961,33 @@
       <c r="H65" s="59">
         <v>3.59</v>
       </c>
-      <c r="I65" s="76">
+      <c r="I65" s="75">
         <v>43.08</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="74">
+      <c r="A66" s="87">
         <v>81978</v>
       </c>
-      <c r="B66" s="85" t="s">
-        <v>251</v>
-      </c>
-      <c r="C66" s="78" t="s">
+      <c r="B66" s="84" t="s">
+        <v>187</v>
+      </c>
+      <c r="C66" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="78">
-        <v>6</v>
-      </c>
-      <c r="E66" s="78">
-        <v>6</v>
-      </c>
-      <c r="F66" s="79">
+      <c r="D66" s="77">
+        <v>6</v>
+      </c>
+      <c r="E66" s="77">
+        <v>6</v>
+      </c>
+      <c r="F66" s="78">
         <v>4.05</v>
       </c>
-      <c r="G66" s="80">
+      <c r="G66" s="79">
         <v>24.3</v>
       </c>
-      <c r="H66" s="81">
+      <c r="H66" s="80">
         <v>5.39</v>
       </c>
       <c r="I66" s="65">
@@ -3991,28 +3995,28 @@
       </c>
     </row>
     <row r="67" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="75">
+      <c r="A67" s="74">
         <v>81024</v>
       </c>
-      <c r="B67" s="85" t="s">
-        <v>252</v>
-      </c>
-      <c r="C67" s="78" t="s">
+      <c r="B67" s="86" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="D67" s="78">
-        <v>6</v>
-      </c>
-      <c r="E67" s="78">
-        <v>6</v>
-      </c>
-      <c r="F67" s="82">
+      <c r="D67" s="77">
+        <v>6</v>
+      </c>
+      <c r="E67" s="77">
+        <v>6</v>
+      </c>
+      <c r="F67" s="81">
         <v>2.88</v>
       </c>
-      <c r="G67" s="83">
+      <c r="G67" s="82">
         <v>17.28</v>
       </c>
-      <c r="H67" s="84">
+      <c r="H67" s="83">
         <v>3.84</v>
       </c>
       <c r="I67" s="65">
@@ -4023,8 +4027,8 @@
       <c r="A68" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="86" t="s">
-        <v>253</v>
+      <c r="B68" s="85" t="s">
+        <v>352</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>41</v>
@@ -4044,7 +4048,7 @@
       <c r="H68" s="54">
         <v>6.95</v>
       </c>
-      <c r="I68" s="77">
+      <c r="I68" s="76">
         <v>41.7</v>
       </c>
     </row>
@@ -4053,7 +4057,7 @@
         <v>72</v>
       </c>
       <c r="B69" s="68" t="s">
-        <v>254</v>
+        <v>353</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>41</v>
@@ -4082,7 +4086,7 @@
         <v>73</v>
       </c>
       <c r="B70" s="68" t="s">
-        <v>255</v>
+        <v>354</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>13</v>
@@ -4111,7 +4115,7 @@
         <v>74</v>
       </c>
       <c r="B71" s="68" t="s">
-        <v>256</v>
+        <v>355</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>13</v>
@@ -4140,7 +4144,7 @@
         <v>75</v>
       </c>
       <c r="B72" s="68" t="s">
-        <v>257</v>
+        <v>356</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>41</v>
@@ -4169,7 +4173,7 @@
         <v>76</v>
       </c>
       <c r="B73" s="68" t="s">
-        <v>258</v>
+        <v>357</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>41</v>
@@ -4198,7 +4202,7 @@
         <v>77</v>
       </c>
       <c r="B74" s="68" t="s">
-        <v>259</v>
+        <v>358</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>13</v>
@@ -4227,7 +4231,7 @@
         <v>78</v>
       </c>
       <c r="B75" s="68" t="s">
-        <v>260</v>
+        <v>359</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>11</v>
@@ -4256,7 +4260,7 @@
         <v>81500</v>
       </c>
       <c r="B76" s="68" t="s">
-        <v>261</v>
+        <v>360</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>41</v>
@@ -4285,7 +4289,7 @@
         <v>79</v>
       </c>
       <c r="B77" s="68" t="s">
-        <v>262</v>
+        <v>361</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>11</v>
@@ -4314,7 +4318,7 @@
         <v>80</v>
       </c>
       <c r="B78" s="68" t="s">
-        <v>263</v>
+        <v>362</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>50</v>
@@ -4343,7 +4347,7 @@
         <v>81</v>
       </c>
       <c r="B79" s="68" t="s">
-        <v>264</v>
+        <v>363</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>13</v>
@@ -4372,7 +4376,7 @@
         <v>82</v>
       </c>
       <c r="B80" s="68" t="s">
-        <v>265</v>
+        <v>364</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>50</v>
@@ -4401,7 +4405,7 @@
         <v>83</v>
       </c>
       <c r="B81" s="68" t="s">
-        <v>266</v>
+        <v>365</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>13</v>
@@ -4430,7 +4434,7 @@
         <v>81925</v>
       </c>
       <c r="B82" s="68" t="s">
-        <v>267</v>
+        <v>366</v>
       </c>
       <c r="C82" s="29" t="s">
         <v>50</v>
@@ -4459,7 +4463,7 @@
         <v>81926</v>
       </c>
       <c r="B83" s="68" t="s">
-        <v>268</v>
+        <v>367</v>
       </c>
       <c r="C83" s="29" t="s">
         <v>50</v>
@@ -4488,7 +4492,7 @@
         <v>81929</v>
       </c>
       <c r="B84" s="68" t="s">
-        <v>269</v>
+        <v>368</v>
       </c>
       <c r="C84" s="29" t="s">
         <v>50</v>
@@ -4517,7 +4521,7 @@
         <v>81932</v>
       </c>
       <c r="B85" s="68" t="s">
-        <v>270</v>
+        <v>369</v>
       </c>
       <c r="C85" s="29" t="s">
         <v>50</v>
@@ -4546,7 +4550,7 @@
         <v>81033</v>
       </c>
       <c r="B86" s="68" t="s">
-        <v>271</v>
+        <v>370</v>
       </c>
       <c r="C86" s="29" t="s">
         <v>84</v>
@@ -4575,7 +4579,7 @@
         <v>81927</v>
       </c>
       <c r="B87" s="68" t="s">
-        <v>272</v>
+        <v>371</v>
       </c>
       <c r="C87" s="29" t="s">
         <v>85</v>
@@ -4604,7 +4608,7 @@
         <v>81928</v>
       </c>
       <c r="B88" s="68" t="s">
-        <v>273</v>
+        <v>372</v>
       </c>
       <c r="C88" s="29" t="s">
         <v>85</v>
@@ -4633,7 +4637,7 @@
         <v>2001</v>
       </c>
       <c r="B89" s="67" t="s">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="C89" s="32" t="s">
         <v>86</v>
@@ -4662,7 +4666,7 @@
         <v>2002</v>
       </c>
       <c r="B90" s="67" t="s">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="C90" s="32" t="s">
         <v>50</v>
@@ -4691,7 +4695,7 @@
         <v>2003</v>
       </c>
       <c r="B91" s="67" t="s">
-        <v>276</v>
+        <v>191</v>
       </c>
       <c r="C91" s="32" t="s">
         <v>41</v>
@@ -4720,7 +4724,7 @@
         <v>2103</v>
       </c>
       <c r="B92" s="67" t="s">
-        <v>277</v>
+        <v>192</v>
       </c>
       <c r="C92" s="32" t="s">
         <v>86</v>
@@ -4778,7 +4782,7 @@
         <v>2202</v>
       </c>
       <c r="B94" s="67" t="s">
-        <v>278</v>
+        <v>193</v>
       </c>
       <c r="C94" s="32" t="s">
         <v>50</v>
@@ -4807,7 +4811,7 @@
         <v>2204</v>
       </c>
       <c r="B95" s="67" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="C95" s="32" t="s">
         <v>41</v>
@@ -4836,7 +4840,7 @@
         <v>2305</v>
       </c>
       <c r="B96" s="67" t="s">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="C96" s="32" t="s">
         <v>41</v>
@@ -4865,7 +4869,7 @@
         <v>2306</v>
       </c>
       <c r="B97" s="67" t="s">
-        <v>281</v>
+        <v>196</v>
       </c>
       <c r="C97" s="32" t="s">
         <v>88</v>
@@ -4894,7 +4898,7 @@
         <v>2416</v>
       </c>
       <c r="B98" s="67" t="s">
-        <v>282</v>
+        <v>197</v>
       </c>
       <c r="C98" s="32" t="s">
         <v>86</v>
@@ -4923,7 +4927,7 @@
         <v>2415</v>
       </c>
       <c r="B99" s="67" t="s">
-        <v>283</v>
+        <v>198</v>
       </c>
       <c r="C99" s="32" t="s">
         <v>50</v>
@@ -4952,7 +4956,7 @@
         <v>2409</v>
       </c>
       <c r="B100" s="67" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="C100" s="32" t="s">
         <v>41</v>
@@ -4981,7 +4985,7 @@
         <v>2448</v>
       </c>
       <c r="B101" s="67" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="C101" s="32" t="s">
         <v>13</v>
@@ -5039,7 +5043,7 @@
         <v>2404</v>
       </c>
       <c r="B103" s="67" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="C103" s="32" t="s">
         <v>41</v>
@@ -5068,7 +5072,7 @@
         <v>2408</v>
       </c>
       <c r="B104" s="67" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="C104" s="32" t="s">
         <v>13</v>
@@ -5097,7 +5101,7 @@
         <v>2414</v>
       </c>
       <c r="B105" s="67" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="C105" s="32" t="s">
         <v>41</v>
@@ -5126,7 +5130,7 @@
         <v>2410</v>
       </c>
       <c r="B106" s="67" t="s">
-        <v>289</v>
+        <v>204</v>
       </c>
       <c r="C106" s="32" t="s">
         <v>88</v>
@@ -5155,7 +5159,7 @@
         <v>2411</v>
       </c>
       <c r="B107" s="67" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="C107" s="32" t="s">
         <v>88</v>
@@ -5184,7 +5188,7 @@
         <v>2413</v>
       </c>
       <c r="B108" s="67" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="C108" s="32" t="s">
         <v>89</v>
@@ -5213,7 +5217,7 @@
         <v>1012</v>
       </c>
       <c r="B109" s="67" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="C109" s="32" t="s">
         <v>88</v>
@@ -5242,7 +5246,7 @@
         <v>1204</v>
       </c>
       <c r="B110" s="67" t="s">
-        <v>293</v>
+        <v>373</v>
       </c>
       <c r="C110" s="40" t="s">
         <v>41</v>
@@ -5271,7 +5275,7 @@
         <v>1207</v>
       </c>
       <c r="B111" s="67" t="s">
-        <v>294</v>
+        <v>208</v>
       </c>
       <c r="C111" s="32" t="s">
         <v>41</v>
@@ -5300,7 +5304,7 @@
         <v>1312</v>
       </c>
       <c r="B112" s="67" t="s">
-        <v>295</v>
+        <v>209</v>
       </c>
       <c r="C112" s="32" t="s">
         <v>88</v>
@@ -5329,7 +5333,7 @@
         <v>1404</v>
       </c>
       <c r="B113" s="67" t="s">
-        <v>296</v>
+        <v>210</v>
       </c>
       <c r="C113" s="40" t="s">
         <v>41</v>
@@ -5358,7 +5362,7 @@
         <v>1412</v>
       </c>
       <c r="B114" s="67" t="s">
-        <v>297</v>
+        <v>211</v>
       </c>
       <c r="C114" s="32" t="s">
         <v>88</v>
@@ -5387,7 +5391,7 @@
         <v>2512</v>
       </c>
       <c r="B115" s="67" t="s">
-        <v>298</v>
+        <v>212</v>
       </c>
       <c r="C115" s="32" t="s">
         <v>88</v>
@@ -5416,7 +5420,7 @@
         <v>3304</v>
       </c>
       <c r="B116" s="67" t="s">
-        <v>299</v>
+        <v>213</v>
       </c>
       <c r="C116" s="32" t="s">
         <v>41</v>
@@ -5445,7 +5449,7 @@
         <v>3804</v>
       </c>
       <c r="B117" s="67" t="s">
-        <v>300</v>
+        <v>214</v>
       </c>
       <c r="C117" s="32" t="s">
         <v>41</v>
@@ -5474,7 +5478,7 @@
         <v>3404</v>
       </c>
       <c r="B118" s="67" t="s">
-        <v>301</v>
+        <v>215</v>
       </c>
       <c r="C118" s="32" t="s">
         <v>41</v>
@@ -5503,7 +5507,7 @@
         <v>3504</v>
       </c>
       <c r="B119" s="67" t="s">
-        <v>302</v>
+        <v>216</v>
       </c>
       <c r="C119" s="32" t="s">
         <v>41</v>
@@ -5532,7 +5536,7 @@
         <v>3904</v>
       </c>
       <c r="B120" s="67" t="s">
-        <v>303</v>
+        <v>217</v>
       </c>
       <c r="C120" s="32" t="s">
         <v>41</v>
@@ -5561,7 +5565,7 @@
         <v>3704</v>
       </c>
       <c r="B121" s="67" t="s">
-        <v>304</v>
+        <v>218</v>
       </c>
       <c r="C121" s="32" t="s">
         <v>41</v>
@@ -5590,7 +5594,7 @@
         <v>8109</v>
       </c>
       <c r="B122" s="67" t="s">
-        <v>305</v>
+        <v>374</v>
       </c>
       <c r="C122" s="40" t="s">
         <v>90</v>
@@ -5619,7 +5623,7 @@
         <v>6838</v>
       </c>
       <c r="B123" s="70" t="s">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="C123" s="32" t="s">
         <v>88</v>
@@ -5648,7 +5652,7 @@
         <v>6839</v>
       </c>
       <c r="B124" s="70" t="s">
-        <v>307</v>
+        <v>376</v>
       </c>
       <c r="C124" s="32" t="s">
         <v>88</v>
@@ -5677,7 +5681,7 @@
         <v>8102</v>
       </c>
       <c r="B125" s="67" t="s">
-        <v>308</v>
+        <v>219</v>
       </c>
       <c r="C125" s="32" t="s">
         <v>41</v>
@@ -5706,7 +5710,7 @@
         <v>8103</v>
       </c>
       <c r="B126" s="67" t="s">
-        <v>309</v>
+        <v>220</v>
       </c>
       <c r="C126" s="32" t="s">
         <v>41</v>
@@ -5735,7 +5739,7 @@
         <v>8104</v>
       </c>
       <c r="B127" s="67" t="s">
-        <v>310</v>
+        <v>221</v>
       </c>
       <c r="C127" s="32" t="s">
         <v>41</v>
@@ -5764,7 +5768,7 @@
         <v>8105</v>
       </c>
       <c r="B128" s="67" t="s">
-        <v>311</v>
+        <v>222</v>
       </c>
       <c r="C128" s="32" t="s">
         <v>41</v>
@@ -5820,7 +5824,7 @@
         <v>8108</v>
       </c>
       <c r="B130" s="67" t="s">
-        <v>312</v>
+        <v>223</v>
       </c>
       <c r="C130" s="32" t="s">
         <v>41</v>
@@ -5849,7 +5853,7 @@
         <v>8111</v>
       </c>
       <c r="B131" s="67" t="s">
-        <v>313</v>
+        <v>224</v>
       </c>
       <c r="C131" s="32" t="s">
         <v>41</v>
@@ -5878,7 +5882,7 @@
         <v>8113</v>
       </c>
       <c r="B132" s="67" t="s">
-        <v>314</v>
+        <v>225</v>
       </c>
       <c r="C132" s="32" t="s">
         <v>41</v>
@@ -5907,7 +5911,7 @@
         <v>8114</v>
       </c>
       <c r="B133" s="67" t="s">
-        <v>315</v>
+        <v>226</v>
       </c>
       <c r="C133" s="32" t="s">
         <v>41</v>
@@ -5963,7 +5967,7 @@
         <v>2540</v>
       </c>
       <c r="B135" s="67" t="s">
-        <v>316</v>
+        <v>227</v>
       </c>
       <c r="C135" s="32" t="s">
         <v>92</v>
@@ -5992,7 +5996,7 @@
         <v>2621</v>
       </c>
       <c r="B136" s="70" t="s">
-        <v>317</v>
+        <v>228</v>
       </c>
       <c r="C136" s="40" t="s">
         <v>50</v>
@@ -6021,7 +6025,7 @@
         <v>2620</v>
       </c>
       <c r="B137" s="70" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
       <c r="C137" s="40" t="s">
         <v>41</v>
@@ -6050,7 +6054,7 @@
         <v>2555</v>
       </c>
       <c r="B138" s="67" t="s">
-        <v>319</v>
+        <v>230</v>
       </c>
       <c r="C138" s="32" t="s">
         <v>93</v>
@@ -6079,7 +6083,7 @@
         <v>2556</v>
       </c>
       <c r="B139" s="67" t="s">
-        <v>320</v>
+        <v>231</v>
       </c>
       <c r="C139" s="32" t="s">
         <v>93</v>
@@ -6108,7 +6112,7 @@
         <v>2557</v>
       </c>
       <c r="B140" s="67" t="s">
-        <v>321</v>
+        <v>232</v>
       </c>
       <c r="C140" s="37" t="s">
         <v>41</v>
@@ -6137,7 +6141,7 @@
         <v>2558</v>
       </c>
       <c r="B141" s="67" t="s">
-        <v>322</v>
+        <v>233</v>
       </c>
       <c r="C141" s="32" t="s">
         <v>13</v>
@@ -6166,7 +6170,7 @@
         <v>8635</v>
       </c>
       <c r="B142" s="67" t="s">
-        <v>323</v>
+        <v>234</v>
       </c>
       <c r="C142" s="40" t="s">
         <v>50</v>
@@ -6195,7 +6199,7 @@
         <v>8636</v>
       </c>
       <c r="B143" s="67" t="s">
-        <v>324</v>
+        <v>235</v>
       </c>
       <c r="C143" s="40" t="s">
         <v>50</v>
@@ -6224,7 +6228,7 @@
         <v>8637</v>
       </c>
       <c r="B144" s="67" t="s">
-        <v>325</v>
+        <v>236</v>
       </c>
       <c r="C144" s="40" t="s">
         <v>13</v>
@@ -6253,7 +6257,7 @@
         <v>8638</v>
       </c>
       <c r="B145" s="67" t="s">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="C145" s="40" t="s">
         <v>13</v>
@@ -6282,7 +6286,7 @@
         <v>807</v>
       </c>
       <c r="B146" s="67" t="s">
-        <v>327</v>
+        <v>238</v>
       </c>
       <c r="C146" s="40" t="s">
         <v>50</v>
@@ -6311,7 +6315,7 @@
         <v>808</v>
       </c>
       <c r="B147" s="67" t="s">
-        <v>328</v>
+        <v>239</v>
       </c>
       <c r="C147" s="40" t="s">
         <v>50</v>
@@ -6340,7 +6344,7 @@
         <v>809</v>
       </c>
       <c r="B148" s="67" t="s">
-        <v>329</v>
+        <v>240</v>
       </c>
       <c r="C148" s="40" t="s">
         <v>50</v>
@@ -6369,7 +6373,7 @@
         <v>810</v>
       </c>
       <c r="B149" s="67" t="s">
-        <v>330</v>
+        <v>241</v>
       </c>
       <c r="C149" s="40" t="s">
         <v>50</v>
@@ -6398,7 +6402,7 @@
         <v>811</v>
       </c>
       <c r="B150" s="67" t="s">
-        <v>331</v>
+        <v>242</v>
       </c>
       <c r="C150" s="40" t="s">
         <v>50</v>
@@ -6427,7 +6431,7 @@
         <v>826</v>
       </c>
       <c r="B151" s="67" t="s">
-        <v>332</v>
+        <v>243</v>
       </c>
       <c r="C151" s="40" t="s">
         <v>50</v>
@@ -6456,7 +6460,7 @@
         <v>813</v>
       </c>
       <c r="B152" s="67" t="s">
-        <v>333</v>
+        <v>244</v>
       </c>
       <c r="C152" s="40" t="s">
         <v>50</v>
@@ -6485,7 +6489,7 @@
         <v>814</v>
       </c>
       <c r="B153" s="67" t="s">
-        <v>334</v>
+        <v>245</v>
       </c>
       <c r="C153" s="40" t="s">
         <v>50</v>
@@ -6514,7 +6518,7 @@
         <v>816</v>
       </c>
       <c r="B154" s="67" t="s">
-        <v>335</v>
+        <v>246</v>
       </c>
       <c r="C154" s="40" t="s">
         <v>50</v>
@@ -6543,7 +6547,7 @@
         <v>817</v>
       </c>
       <c r="B155" s="67" t="s">
-        <v>336</v>
+        <v>247</v>
       </c>
       <c r="C155" s="40" t="s">
         <v>50</v>
@@ -6572,7 +6576,7 @@
         <v>821</v>
       </c>
       <c r="B156" s="67" t="s">
-        <v>337</v>
+        <v>248</v>
       </c>
       <c r="C156" s="40" t="s">
         <v>50</v>
@@ -6601,7 +6605,7 @@
         <v>822</v>
       </c>
       <c r="B157" s="67" t="s">
-        <v>338</v>
+        <v>249</v>
       </c>
       <c r="C157" s="40" t="s">
         <v>50</v>
@@ -6630,7 +6634,7 @@
         <v>823</v>
       </c>
       <c r="B158" s="67" t="s">
-        <v>339</v>
+        <v>250</v>
       </c>
       <c r="C158" s="40" t="s">
         <v>50</v>
@@ -6659,7 +6663,7 @@
         <v>824</v>
       </c>
       <c r="B159" s="67" t="s">
-        <v>340</v>
+        <v>251</v>
       </c>
       <c r="C159" s="40" t="s">
         <v>50</v>
@@ -6688,7 +6692,7 @@
         <v>907</v>
       </c>
       <c r="B160" s="67" t="s">
-        <v>341</v>
+        <v>252</v>
       </c>
       <c r="C160" s="40" t="s">
         <v>41</v>
@@ -6717,7 +6721,7 @@
         <v>909</v>
       </c>
       <c r="B161" s="67" t="s">
-        <v>342</v>
+        <v>253</v>
       </c>
       <c r="C161" s="40" t="s">
         <v>41</v>
@@ -6746,7 +6750,7 @@
         <v>911</v>
       </c>
       <c r="B162" s="67" t="s">
-        <v>343</v>
+        <v>254</v>
       </c>
       <c r="C162" s="40" t="s">
         <v>41</v>
@@ -6775,7 +6779,7 @@
         <v>926</v>
       </c>
       <c r="B163" s="67" t="s">
-        <v>344</v>
+        <v>255</v>
       </c>
       <c r="C163" s="40" t="s">
         <v>41</v>
@@ -6804,7 +6808,7 @@
         <v>916</v>
       </c>
       <c r="B164" s="67" t="s">
-        <v>345</v>
+        <v>256</v>
       </c>
       <c r="C164" s="40" t="s">
         <v>41</v>
@@ -6833,7 +6837,7 @@
         <v>921</v>
       </c>
       <c r="B165" s="67" t="s">
-        <v>346</v>
+        <v>257</v>
       </c>
       <c r="C165" s="40" t="s">
         <v>41</v>
@@ -6862,7 +6866,7 @@
         <v>923</v>
       </c>
       <c r="B166" s="67" t="s">
-        <v>347</v>
+        <v>258</v>
       </c>
       <c r="C166" s="40" t="s">
         <v>41</v>
@@ -6891,7 +6895,7 @@
         <v>924</v>
       </c>
       <c r="B167" s="67" t="s">
-        <v>348</v>
+        <v>259</v>
       </c>
       <c r="C167" s="40" t="s">
         <v>41</v>
@@ -6920,7 +6924,7 @@
         <v>57974</v>
       </c>
       <c r="B168" s="69" t="s">
-        <v>349</v>
+        <v>260</v>
       </c>
       <c r="C168" s="43" t="s">
         <v>84</v>
@@ -6949,7 +6953,7 @@
         <v>57975</v>
       </c>
       <c r="B169" s="69" t="s">
-        <v>350</v>
+        <v>261</v>
       </c>
       <c r="C169" s="43" t="s">
         <v>84</v>
@@ -6978,7 +6982,7 @@
         <v>57976</v>
       </c>
       <c r="B170" s="69" t="s">
-        <v>351</v>
+        <v>262</v>
       </c>
       <c r="C170" s="40" t="s">
         <v>84</v>
@@ -7007,7 +7011,7 @@
         <v>57977</v>
       </c>
       <c r="B171" s="69" t="s">
-        <v>352</v>
+        <v>263</v>
       </c>
       <c r="C171" s="40" t="s">
         <v>84</v>
@@ -7036,7 +7040,7 @@
         <v>57978</v>
       </c>
       <c r="B172" s="69" t="s">
-        <v>353</v>
+        <v>264</v>
       </c>
       <c r="C172" s="40" t="s">
         <v>84</v>
@@ -7065,7 +7069,7 @@
         <v>57979</v>
       </c>
       <c r="B173" s="69" t="s">
-        <v>354</v>
+        <v>265</v>
       </c>
       <c r="C173" s="40" t="s">
         <v>84</v>
@@ -7094,7 +7098,7 @@
         <v>57980</v>
       </c>
       <c r="B174" s="69" t="s">
-        <v>355</v>
+        <v>266</v>
       </c>
       <c r="C174" s="40" t="s">
         <v>84</v>
@@ -7123,7 +7127,7 @@
         <v>57981</v>
       </c>
       <c r="B175" s="69" t="s">
-        <v>356</v>
+        <v>267</v>
       </c>
       <c r="C175" s="40" t="s">
         <v>84</v>
@@ -7152,7 +7156,7 @@
         <v>57982</v>
       </c>
       <c r="B176" s="69" t="s">
-        <v>357</v>
+        <v>268</v>
       </c>
       <c r="C176" s="40" t="s">
         <v>84</v>
@@ -7181,7 +7185,7 @@
         <v>57983</v>
       </c>
       <c r="B177" s="69" t="s">
-        <v>358</v>
+        <v>269</v>
       </c>
       <c r="C177" s="43" t="s">
         <v>84</v>
@@ -7210,7 +7214,7 @@
         <v>57984</v>
       </c>
       <c r="B178" s="69" t="s">
-        <v>359</v>
+        <v>270</v>
       </c>
       <c r="C178" s="43" t="s">
         <v>84</v>
@@ -7239,7 +7243,7 @@
         <v>57985</v>
       </c>
       <c r="B179" s="69" t="s">
-        <v>360</v>
+        <v>271</v>
       </c>
       <c r="C179" s="43" t="s">
         <v>84</v>
@@ -7268,7 +7272,7 @@
         <v>57986</v>
       </c>
       <c r="B180" s="69" t="s">
-        <v>361</v>
+        <v>272</v>
       </c>
       <c r="C180" s="43" t="s">
         <v>84</v>
@@ -7297,7 +7301,7 @@
         <v>57987</v>
       </c>
       <c r="B181" s="69" t="s">
-        <v>362</v>
+        <v>273</v>
       </c>
       <c r="C181" s="43" t="s">
         <v>84</v>
@@ -7326,7 +7330,7 @@
         <v>57988</v>
       </c>
       <c r="B182" s="69" t="s">
-        <v>363</v>
+        <v>274</v>
       </c>
       <c r="C182" s="43" t="s">
         <v>84</v>
@@ -7355,7 +7359,7 @@
         <v>57989</v>
       </c>
       <c r="B183" s="69" t="s">
-        <v>364</v>
+        <v>275</v>
       </c>
       <c r="C183" s="43" t="s">
         <v>84</v>
@@ -7384,7 +7388,7 @@
         <v>57990</v>
       </c>
       <c r="B184" s="69" t="s">
-        <v>365</v>
+        <v>276</v>
       </c>
       <c r="C184" s="43" t="s">
         <v>84</v>
@@ -7413,7 +7417,7 @@
         <v>57991</v>
       </c>
       <c r="B185" s="69" t="s">
-        <v>366</v>
+        <v>277</v>
       </c>
       <c r="C185" s="43" t="s">
         <v>84</v>
@@ -7442,7 +7446,7 @@
         <v>58000</v>
       </c>
       <c r="B186" s="69" t="s">
-        <v>367</v>
+        <v>278</v>
       </c>
       <c r="C186" s="43" t="s">
         <v>84</v>
@@ -7703,7 +7707,7 @@
         <v>95</v>
       </c>
       <c r="B195" s="66" t="s">
-        <v>368</v>
+        <v>279</v>
       </c>
       <c r="C195" s="46" t="s">
         <v>50</v>
@@ -7732,7 +7736,7 @@
         <v>96</v>
       </c>
       <c r="B196" s="66" t="s">
-        <v>369</v>
+        <v>280</v>
       </c>
       <c r="C196" s="46" t="s">
         <v>50</v>
@@ -7761,7 +7765,7 @@
         <v>97</v>
       </c>
       <c r="B197" s="66" t="s">
-        <v>370</v>
+        <v>281</v>
       </c>
       <c r="C197" s="46" t="s">
         <v>50</v>
@@ -7790,7 +7794,7 @@
         <v>98</v>
       </c>
       <c r="B198" s="66" t="s">
-        <v>371</v>
+        <v>282</v>
       </c>
       <c r="C198" s="46" t="s">
         <v>50</v>
@@ -7819,7 +7823,7 @@
         <v>99</v>
       </c>
       <c r="B199" s="66" t="s">
-        <v>372</v>
+        <v>283</v>
       </c>
       <c r="C199" s="46" t="s">
         <v>50</v>
@@ -7848,7 +7852,7 @@
         <v>100</v>
       </c>
       <c r="B200" s="66" t="s">
-        <v>373</v>
+        <v>284</v>
       </c>
       <c r="C200" s="46" t="s">
         <v>50</v>
@@ -7900,7 +7904,7 @@
         <v>8351</v>
       </c>
       <c r="B202" s="67" t="s">
-        <v>374</v>
+        <v>285</v>
       </c>
       <c r="C202" s="44" t="s">
         <v>13</v>
@@ -7929,7 +7933,7 @@
         <v>8352</v>
       </c>
       <c r="B203" s="67" t="s">
-        <v>375</v>
+        <v>286</v>
       </c>
       <c r="C203" s="44" t="s">
         <v>41</v>
@@ -7958,7 +7962,7 @@
         <v>8353</v>
       </c>
       <c r="B204" s="67" t="s">
-        <v>376</v>
+        <v>287</v>
       </c>
       <c r="C204" s="44" t="s">
         <v>50</v>
@@ -8418,7 +8422,7 @@
         <v>106</v>
       </c>
       <c r="B220" s="66" t="s">
-        <v>169</v>
+        <v>380</v>
       </c>
       <c r="C220" s="46" t="s">
         <v>107</v>
@@ -8447,7 +8451,7 @@
         <v>108</v>
       </c>
       <c r="B221" s="66" t="s">
-        <v>170</v>
+        <v>379</v>
       </c>
       <c r="C221" s="46" t="s">
         <v>109</v>
@@ -8476,7 +8480,7 @@
         <v>110</v>
       </c>
       <c r="B222" s="66" t="s">
-        <v>171</v>
+        <v>378</v>
       </c>
       <c r="C222" s="46" t="s">
         <v>107</v>
@@ -8505,7 +8509,7 @@
         <v>111</v>
       </c>
       <c r="B223" s="66" t="s">
-        <v>172</v>
+        <v>377</v>
       </c>
       <c r="C223" s="46" t="s">
         <v>109</v>
@@ -8534,7 +8538,7 @@
         <v>112</v>
       </c>
       <c r="B224" s="66" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C224" s="46" t="s">
         <v>113</v>
@@ -8563,7 +8567,7 @@
         <v>114</v>
       </c>
       <c r="B225" s="66" t="s">
-        <v>377</v>
+        <v>288</v>
       </c>
       <c r="C225" s="46" t="s">
         <v>113</v>
@@ -8592,7 +8596,7 @@
         <v>115</v>
       </c>
       <c r="B226" s="66" t="s">
-        <v>378</v>
+        <v>289</v>
       </c>
       <c r="C226" s="46" t="s">
         <v>116</v>
@@ -8621,7 +8625,7 @@
         <v>117</v>
       </c>
       <c r="B227" s="66" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C227" s="46" t="s">
         <v>116</v>
@@ -8650,7 +8654,7 @@
         <v>118</v>
       </c>
       <c r="B228" s="66" t="s">
-        <v>379</v>
+        <v>290</v>
       </c>
       <c r="C228" s="46" t="s">
         <v>119</v>
@@ -8679,7 +8683,7 @@
         <v>120</v>
       </c>
       <c r="B229" s="66" t="s">
-        <v>380</v>
+        <v>291</v>
       </c>
       <c r="C229" s="46" t="s">
         <v>119</v>
@@ -8708,7 +8712,7 @@
         <v>121</v>
       </c>
       <c r="B230" s="66" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C230" s="46" t="s">
         <v>67</v>
@@ -8737,7 +8741,7 @@
         <v>122</v>
       </c>
       <c r="B231" s="66" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C231" s="46" t="s">
         <v>67</v>
@@ -8766,7 +8770,7 @@
         <v>123</v>
       </c>
       <c r="B232" s="66" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C232" s="46" t="s">
         <v>116</v>
@@ -8795,7 +8799,7 @@
         <v>124</v>
       </c>
       <c r="B233" s="66" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C233" s="46" t="s">
         <v>125</v>
@@ -8824,7 +8828,7 @@
         <v>126</v>
       </c>
       <c r="B234" s="66" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C234" s="46" t="s">
         <v>127</v>
@@ -8853,7 +8857,7 @@
         <v>128</v>
       </c>
       <c r="B235" s="66" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C235" s="46" t="s">
         <v>113</v>
@@ -8882,7 +8886,7 @@
         <v>129</v>
       </c>
       <c r="B236" s="66" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C236" s="46" t="s">
         <v>130</v>
@@ -8911,7 +8915,7 @@
         <v>131</v>
       </c>
       <c r="B237" s="66" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C237" s="46" t="s">
         <v>102</v>
@@ -8940,7 +8944,7 @@
         <v>132</v>
       </c>
       <c r="B238" s="66" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C238" s="46" t="s">
         <v>133</v>
@@ -8969,7 +8973,7 @@
         <v>134</v>
       </c>
       <c r="B239" s="66" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C239" s="46" t="s">
         <v>125</v>
@@ -8998,7 +9002,7 @@
         <v>135</v>
       </c>
       <c r="B240" s="66" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C240" s="46" t="s">
         <v>136</v>
@@ -9027,7 +9031,7 @@
         <v>137</v>
       </c>
       <c r="B241" s="66" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C241" s="46" t="s">
         <v>113</v>
@@ -9056,7 +9060,7 @@
         <v>138</v>
       </c>
       <c r="B242" s="66" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C242" s="46" t="s">
         <v>113</v>
@@ -9092,21 +9096,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA4CE35FBA3FCA40A73C579F6A6A3EE9" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5ac5c3fc64f2cadef43b45748e378722">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a55bfc10-98a3-43c8-ba74-580b265d481b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b595dedb55343b63743968ab588f91e8" ns3:_="">
     <xsd:import namespace="a55bfc10-98a3-43c8-ba74-580b265d481b"/>
@@ -9238,24 +9227,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69CCE861-DD32-4FE6-8FCD-971E0B96D28A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7D2379C-DFC4-43A1-A897-492A72D538A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CDF98D8-84AB-4F4D-A649-AB4525D61019}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9271,4 +9258,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7D2379C-DFC4-43A1-A897-492A72D538A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69CCE861-DD32-4FE6-8FCD-971E0B96D28A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/UBP_Price.xlsx
+++ b/UBP_Price.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universalbeauty-my.sharepoint.com/personal/y_lee_universalbeauty_com/Documents/YoungSunLee/Develop/pricecheck/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="415" documentId="8_{2EA92289-AFF7-45F3-94D3-4549B2A8F483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4885C678-9C96-4C19-96CF-67E0C06ED6FF}"/>
+  <xr:revisionPtr revIDLastSave="417" documentId="8_{2EA92289-AFF7-45F3-94D3-4549B2A8F483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEFC9F38-AC29-4AF2-AF2B-7BC099FEEEB6}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{180F7D42-C005-46EA-91A1-F109AC7E0FF3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="490">
   <si>
     <t xml:space="preserve">ITEM NO. </t>
   </si>
@@ -1506,9 +1506,6 @@
   </si>
   <si>
     <t>RT UNIT PRICE</t>
-  </si>
-  <si>
-    <t>RT CASE PRICE</t>
   </si>
 </sst>
 </file>
@@ -1924,10 +1921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73585EB-007D-4419-8C5C-3CFF5813C644}">
-  <dimension ref="A1:I242"/>
+  <dimension ref="A1:H242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1940,10 +1937,9 @@
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1968,11 +1964,8 @@
       <c r="H1" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>29407</v>
       </c>
@@ -1997,11 +1990,8 @@
       <c r="H2">
         <v>4.34</v>
       </c>
-      <c r="I2">
-        <v>26.04</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>29420</v>
       </c>
@@ -2026,11 +2016,8 @@
       <c r="H3">
         <v>4.34</v>
       </c>
-      <c r="I3">
-        <v>26.04</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>29060</v>
       </c>
@@ -2055,11 +2042,8 @@
       <c r="H4">
         <v>4.34</v>
       </c>
-      <c r="I4">
-        <v>26.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>29066</v>
       </c>
@@ -2084,11 +2068,8 @@
       <c r="H5">
         <v>6.48</v>
       </c>
-      <c r="I5">
-        <v>38.880000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>29070</v>
       </c>
@@ -2113,11 +2094,8 @@
       <c r="H6">
         <v>4.34</v>
       </c>
-      <c r="I6">
-        <v>26.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>29076</v>
       </c>
@@ -2142,11 +2120,8 @@
       <c r="H7">
         <v>6.48</v>
       </c>
-      <c r="I7">
-        <v>38.880000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>29040</v>
       </c>
@@ -2171,11 +2146,8 @@
       <c r="H8">
         <v>4.34</v>
       </c>
-      <c r="I8">
-        <v>26.04</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>29042</v>
       </c>
@@ -2200,11 +2172,8 @@
       <c r="H9">
         <v>6.48</v>
       </c>
-      <c r="I9">
-        <v>38.880000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>29041</v>
       </c>
@@ -2229,11 +2198,8 @@
       <c r="H10">
         <v>4.34</v>
       </c>
-      <c r="I10">
-        <v>26.04</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>29043</v>
       </c>
@@ -2258,11 +2224,8 @@
       <c r="H11">
         <v>6.48</v>
       </c>
-      <c r="I11">
-        <v>38.880000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>29030</v>
       </c>
@@ -2287,11 +2250,8 @@
       <c r="H12">
         <v>4.34</v>
       </c>
-      <c r="I12">
-        <v>26.04</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>29300</v>
       </c>
@@ -2316,11 +2276,8 @@
       <c r="H13">
         <v>4.34</v>
       </c>
-      <c r="I13">
-        <v>26.04</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>29404</v>
       </c>
@@ -2345,11 +2302,8 @@
       <c r="H14">
         <v>4.34</v>
       </c>
-      <c r="I14">
-        <v>26.04</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>29406</v>
       </c>
@@ -2374,11 +2328,8 @@
       <c r="H15">
         <v>4.34</v>
       </c>
-      <c r="I15">
-        <v>26.04</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>29094</v>
       </c>
@@ -2403,11 +2354,8 @@
       <c r="H16">
         <v>4.34</v>
       </c>
-      <c r="I16">
-        <v>26.04</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>29020</v>
       </c>
@@ -2432,11 +2380,8 @@
       <c r="H17">
         <v>4.34</v>
       </c>
-      <c r="I17">
-        <v>26.04</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>29010</v>
       </c>
@@ -2461,11 +2406,8 @@
       <c r="H18">
         <v>6.48</v>
       </c>
-      <c r="I18">
-        <v>38.880000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>29093</v>
       </c>
@@ -2490,11 +2432,8 @@
       <c r="H19">
         <v>4.34</v>
       </c>
-      <c r="I19">
-        <v>26.04</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>29302</v>
       </c>
@@ -2519,11 +2458,8 @@
       <c r="H20">
         <v>6.48</v>
       </c>
-      <c r="I20">
-        <v>38.880000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>29050</v>
       </c>
@@ -2548,11 +2484,8 @@
       <c r="H21">
         <v>4.34</v>
       </c>
-      <c r="I21">
-        <v>26.04</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>29055</v>
       </c>
@@ -2577,11 +2510,8 @@
       <c r="H22">
         <v>6.48</v>
       </c>
-      <c r="I22">
-        <v>38.880000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>29080</v>
       </c>
@@ -2606,11 +2536,8 @@
       <c r="H23">
         <v>4.34</v>
       </c>
-      <c r="I23">
-        <v>26.04</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>29085</v>
       </c>
@@ -2635,11 +2562,8 @@
       <c r="H24">
         <v>6.48</v>
       </c>
-      <c r="I24">
-        <v>38.880000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>29401</v>
       </c>
@@ -2664,11 +2588,8 @@
       <c r="H25">
         <v>4.34</v>
       </c>
-      <c r="I25">
-        <v>26.04</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>29402</v>
       </c>
@@ -2693,11 +2614,8 @@
       <c r="H26">
         <v>6.48</v>
       </c>
-      <c r="I26">
-        <v>38.880000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>29405</v>
       </c>
@@ -2722,11 +2640,8 @@
       <c r="H27">
         <v>4.34</v>
       </c>
-      <c r="I27">
-        <v>26.04</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>29409</v>
       </c>
@@ -2751,11 +2666,8 @@
       <c r="H28">
         <v>6.48</v>
       </c>
-      <c r="I28">
-        <v>38.880000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>29092</v>
       </c>
@@ -2780,11 +2692,8 @@
       <c r="H29">
         <v>4.34</v>
       </c>
-      <c r="I29">
-        <v>26.04</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29304</v>
       </c>
@@ -2809,11 +2718,8 @@
       <c r="H30">
         <v>5.59</v>
       </c>
-      <c r="I30">
-        <v>33.54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29095</v>
       </c>
@@ -2838,11 +2744,8 @@
       <c r="H31">
         <v>4.34</v>
       </c>
-      <c r="I31">
-        <v>26.04</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29096</v>
       </c>
@@ -2867,11 +2770,8 @@
       <c r="H32">
         <v>4.34</v>
       </c>
-      <c r="I32">
-        <v>26.04</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>29097</v>
       </c>
@@ -2896,11 +2796,8 @@
       <c r="H33">
         <v>4.34</v>
       </c>
-      <c r="I33">
-        <v>26.04</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>29098</v>
       </c>
@@ -2925,11 +2822,8 @@
       <c r="H34">
         <v>4.34</v>
       </c>
-      <c r="I34">
-        <v>26.04</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2262</v>
       </c>
@@ -2954,11 +2848,8 @@
       <c r="H35">
         <v>5.33</v>
       </c>
-      <c r="I35">
-        <v>31.98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2263</v>
       </c>
@@ -2983,11 +2874,8 @@
       <c r="H36">
         <v>5.33</v>
       </c>
-      <c r="I36">
-        <v>31.98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2200</v>
       </c>
@@ -3012,11 +2900,8 @@
       <c r="H37">
         <v>3.36</v>
       </c>
-      <c r="I37">
-        <v>80.64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2202</v>
       </c>
@@ -3041,11 +2926,8 @@
       <c r="H38">
         <v>3.36</v>
       </c>
-      <c r="I38">
-        <v>80.64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2201</v>
       </c>
@@ -3070,11 +2952,8 @@
       <c r="H39">
         <v>3.36</v>
       </c>
-      <c r="I39">
-        <v>80.64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2206</v>
       </c>
@@ -3099,11 +2978,8 @@
       <c r="H40">
         <v>3.36</v>
       </c>
-      <c r="I40">
-        <v>80.64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2255</v>
       </c>
@@ -3128,11 +3004,8 @@
       <c r="H41">
         <v>5.71</v>
       </c>
-      <c r="I41">
-        <v>34.26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2256</v>
       </c>
@@ -3157,11 +3030,8 @@
       <c r="H42">
         <v>5.71</v>
       </c>
-      <c r="I42">
-        <v>34.26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>2257</v>
       </c>
@@ -3186,11 +3056,8 @@
       <c r="H43">
         <v>5.71</v>
       </c>
-      <c r="I43">
-        <v>34.26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>2258</v>
       </c>
@@ -3215,11 +3082,8 @@
       <c r="H44">
         <v>5.71</v>
       </c>
-      <c r="I44">
-        <v>34.26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>2261</v>
       </c>
@@ -3244,11 +3108,8 @@
       <c r="H45">
         <v>5.71</v>
       </c>
-      <c r="I45">
-        <v>34.26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>2265</v>
       </c>
@@ -3273,11 +3134,8 @@
       <c r="H46">
         <v>5.71</v>
       </c>
-      <c r="I46">
-        <v>34.26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>2286</v>
       </c>
@@ -3302,11 +3160,8 @@
       <c r="H47">
         <v>5.71</v>
       </c>
-      <c r="I47">
-        <v>34.26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>2287</v>
       </c>
@@ -3331,11 +3186,8 @@
       <c r="H48">
         <v>5.71</v>
       </c>
-      <c r="I48">
-        <v>34.26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>2288</v>
       </c>
@@ -3360,11 +3212,8 @@
       <c r="H49">
         <v>5.71</v>
       </c>
-      <c r="I49">
-        <v>34.26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>2289</v>
       </c>
@@ -3389,11 +3238,8 @@
       <c r="H50">
         <v>5.71</v>
       </c>
-      <c r="I50">
-        <v>34.26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>2296</v>
       </c>
@@ -3418,11 +3264,8 @@
       <c r="H51">
         <v>5.71</v>
       </c>
-      <c r="I51">
-        <v>34.26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>2295</v>
       </c>
@@ -3447,11 +3290,8 @@
       <c r="H52">
         <v>5.71</v>
       </c>
-      <c r="I52">
-        <v>34.26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>2316</v>
       </c>
@@ -3476,11 +3316,8 @@
       <c r="H53">
         <v>8.19</v>
       </c>
-      <c r="I53">
-        <v>49.14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>2315</v>
       </c>
@@ -3505,11 +3342,8 @@
       <c r="H54">
         <v>8.19</v>
       </c>
-      <c r="I54">
-        <v>49.14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>2312</v>
       </c>
@@ -3534,11 +3368,8 @@
       <c r="H55">
         <v>8.19</v>
       </c>
-      <c r="I55">
-        <v>49.14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>81015</v>
       </c>
@@ -3563,11 +3394,8 @@
       <c r="H56">
         <v>5.39</v>
       </c>
-      <c r="I56">
-        <v>32.340000000000003</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>81016</v>
       </c>
@@ -3592,11 +3420,8 @@
       <c r="H57">
         <v>5.39</v>
       </c>
-      <c r="I57">
-        <v>32.340000000000003</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>81017</v>
       </c>
@@ -3621,11 +3446,8 @@
       <c r="H58">
         <v>5.39</v>
       </c>
-      <c r="I58">
-        <v>32.340000000000003</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>81018</v>
       </c>
@@ -3650,11 +3472,8 @@
       <c r="H59">
         <v>5.39</v>
       </c>
-      <c r="I59">
-        <v>32.340000000000003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>81019</v>
       </c>
@@ -3679,11 +3498,8 @@
       <c r="H60">
         <v>5.39</v>
       </c>
-      <c r="I60">
-        <v>32.340000000000003</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>81022</v>
       </c>
@@ -3708,11 +3524,8 @@
       <c r="H61">
         <v>5.39</v>
       </c>
-      <c r="I61">
-        <v>32.340000000000003</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>81020</v>
       </c>
@@ -3731,11 +3544,8 @@
       <c r="H62">
         <v>107.8</v>
       </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>81921</v>
       </c>
@@ -3760,11 +3570,8 @@
       <c r="H63">
         <v>5.99</v>
       </c>
-      <c r="I63">
-        <v>35.94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>81034</v>
       </c>
@@ -3789,11 +3596,8 @@
       <c r="H64">
         <v>8.99</v>
       </c>
-      <c r="I64">
-        <v>53.94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>81976</v>
       </c>
@@ -3818,11 +3622,8 @@
       <c r="H65">
         <v>3.59</v>
       </c>
-      <c r="I65">
-        <v>43.08</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>81978</v>
       </c>
@@ -3847,11 +3648,8 @@
       <c r="H66">
         <v>5.39</v>
       </c>
-      <c r="I66">
-        <v>32.340000000000003</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>81024</v>
       </c>
@@ -3876,11 +3674,8 @@
       <c r="H67">
         <v>3.84</v>
       </c>
-      <c r="I67">
-        <v>23.04</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>76090</v>
       </c>
@@ -3905,11 +3700,8 @@
       <c r="H68">
         <v>6.95</v>
       </c>
-      <c r="I68">
-        <v>41.7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>76070</v>
       </c>
@@ -3934,11 +3726,8 @@
       <c r="H69">
         <v>6.95</v>
       </c>
-      <c r="I69">
-        <v>27.8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>76086</v>
       </c>
@@ -3963,11 +3752,8 @@
       <c r="H70">
         <v>6.95</v>
       </c>
-      <c r="I70">
-        <v>27.8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>76087</v>
       </c>
@@ -3992,11 +3778,8 @@
       <c r="H71">
         <v>6.95</v>
       </c>
-      <c r="I71">
-        <v>27.8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>76083</v>
       </c>
@@ -4021,11 +3804,8 @@
       <c r="H72">
         <v>6.95</v>
       </c>
-      <c r="I72">
-        <v>27.8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>76084</v>
       </c>
@@ -4050,11 +3830,8 @@
       <c r="H73">
         <v>6.95</v>
       </c>
-      <c r="I73">
-        <v>27.8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>76085</v>
       </c>
@@ -4079,11 +3856,8 @@
       <c r="H74">
         <v>6.95</v>
       </c>
-      <c r="I74">
-        <v>27.8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>76081</v>
       </c>
@@ -4108,11 +3882,8 @@
       <c r="H75">
         <v>6.95</v>
       </c>
-      <c r="I75">
-        <v>41.7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>81500</v>
       </c>
@@ -4137,11 +3908,8 @@
       <c r="H76">
         <v>6.95</v>
       </c>
-      <c r="I76">
-        <v>27.8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76082</v>
       </c>
@@ -4166,11 +3934,8 @@
       <c r="H77">
         <v>6.95</v>
       </c>
-      <c r="I77">
-        <v>41.7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>13059</v>
       </c>
@@ -4195,11 +3960,8 @@
       <c r="H78">
         <v>4.3099999999999996</v>
       </c>
-      <c r="I78">
-        <v>51.72</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>13061</v>
       </c>
@@ -4224,11 +3986,8 @@
       <c r="H79">
         <v>8.93</v>
       </c>
-      <c r="I79">
-        <v>53.58</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>13060</v>
       </c>
@@ -4253,11 +4012,8 @@
       <c r="H80">
         <v>4.3099999999999996</v>
       </c>
-      <c r="I80">
-        <v>51.72</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>13062</v>
       </c>
@@ -4282,11 +4038,8 @@
       <c r="H81">
         <v>8.93</v>
       </c>
-      <c r="I81">
-        <v>53.58</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81925</v>
       </c>
@@ -4311,11 +4064,8 @@
       <c r="H82">
         <v>1.79</v>
       </c>
-      <c r="I82">
-        <v>42.96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>81926</v>
       </c>
@@ -4340,11 +4090,8 @@
       <c r="H83">
         <v>1.79</v>
       </c>
-      <c r="I83">
-        <v>42.96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>81929</v>
       </c>
@@ -4369,11 +4116,8 @@
       <c r="H84">
         <v>1.79</v>
       </c>
-      <c r="I84">
-        <v>42.96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>81932</v>
       </c>
@@ -4398,11 +4142,8 @@
       <c r="H85">
         <v>1.79</v>
       </c>
-      <c r="I85">
-        <v>42.96</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>81033</v>
       </c>
@@ -4427,11 +4168,8 @@
       <c r="H86">
         <v>1.79</v>
       </c>
-      <c r="I86">
-        <v>42.96</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>81927</v>
       </c>
@@ -4456,11 +4194,8 @@
       <c r="H87">
         <v>1.79</v>
       </c>
-      <c r="I87">
-        <v>42.96</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>81928</v>
       </c>
@@ -4485,11 +4220,8 @@
       <c r="H88">
         <v>1.79</v>
       </c>
-      <c r="I88">
-        <v>42.96</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>2001</v>
       </c>
@@ -4514,11 +4246,8 @@
       <c r="H89">
         <v>0.59</v>
       </c>
-      <c r="I89">
-        <v>84.96</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>2002</v>
       </c>
@@ -4543,11 +4272,8 @@
       <c r="H90">
         <v>1.21</v>
       </c>
-      <c r="I90">
-        <v>58.08</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>2003</v>
       </c>
@@ -4572,11 +4298,8 @@
       <c r="H91">
         <v>2.33</v>
       </c>
-      <c r="I91">
-        <v>55.92</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>2103</v>
       </c>
@@ -4601,11 +4324,8 @@
       <c r="H92">
         <v>0.76</v>
       </c>
-      <c r="I92">
-        <v>18.239999999999998</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>2441</v>
       </c>
@@ -4630,11 +4350,8 @@
       <c r="H93">
         <v>1.39</v>
       </c>
-      <c r="I93">
-        <v>16.68</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>2202</v>
       </c>
@@ -4659,11 +4376,8 @@
       <c r="H94">
         <v>0.66</v>
       </c>
-      <c r="I94">
-        <v>31.68</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>2204</v>
       </c>
@@ -4688,11 +4402,8 @@
       <c r="H95">
         <v>1.28</v>
       </c>
-      <c r="I95">
-        <v>61.44</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>2305</v>
       </c>
@@ -4717,11 +4428,8 @@
       <c r="H96">
         <v>1.68</v>
       </c>
-      <c r="I96">
-        <v>40.32</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>2306</v>
       </c>
@@ -4746,11 +4454,8 @@
       <c r="H97">
         <v>3.3</v>
       </c>
-      <c r="I97">
-        <v>39.6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>2416</v>
       </c>
@@ -4775,11 +4480,8 @@
       <c r="H98">
         <v>1.25</v>
       </c>
-      <c r="I98">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>2415</v>
       </c>
@@ -4804,11 +4506,8 @@
       <c r="H99">
         <v>2.4300000000000002</v>
       </c>
-      <c r="I99">
-        <v>58.32</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>2409</v>
       </c>
@@ -4833,11 +4532,8 @@
       <c r="H100">
         <v>4.49</v>
       </c>
-      <c r="I100">
-        <v>53.88</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>2448</v>
       </c>
@@ -4862,11 +4558,8 @@
       <c r="H101">
         <v>6.69</v>
       </c>
-      <c r="I101">
-        <v>80.28</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>2440</v>
       </c>
@@ -4891,11 +4584,8 @@
       <c r="H102">
         <v>2.9</v>
       </c>
-      <c r="I102">
-        <v>34.799999999999997</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>2404</v>
       </c>
@@ -4920,11 +4610,8 @@
       <c r="H103">
         <v>3.2</v>
       </c>
-      <c r="I103">
-        <v>76.8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>2408</v>
       </c>
@@ -4949,11 +4636,8 @@
       <c r="H104">
         <v>4.8099999999999996</v>
       </c>
-      <c r="I104">
-        <v>57.72</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>2414</v>
       </c>
@@ -4978,11 +4662,8 @@
       <c r="H105">
         <v>2.95</v>
       </c>
-      <c r="I105">
-        <v>35.4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>2410</v>
       </c>
@@ -5007,11 +4688,8 @@
       <c r="H106">
         <v>4.8099999999999996</v>
       </c>
-      <c r="I106">
-        <v>57.72</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>2411</v>
       </c>
@@ -5036,11 +4714,8 @@
       <c r="H107">
         <v>3.39</v>
       </c>
-      <c r="I107">
-        <v>40.68</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>2413</v>
       </c>
@@ -5065,11 +4740,8 @@
       <c r="H108">
         <v>1.87</v>
       </c>
-      <c r="I108">
-        <v>22.44</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>1012</v>
       </c>
@@ -5094,11 +4766,8 @@
       <c r="H109">
         <v>3.2</v>
       </c>
-      <c r="I109">
-        <v>38.4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>1204</v>
       </c>
@@ -5123,11 +4792,8 @@
       <c r="H110">
         <v>1.27</v>
       </c>
-      <c r="I110">
-        <v>15.24</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>1207</v>
       </c>
@@ -5152,11 +4818,8 @@
       <c r="H111">
         <v>2.2400000000000002</v>
       </c>
-      <c r="I111">
-        <v>26.88</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>1312</v>
       </c>
@@ -5181,11 +4844,8 @@
       <c r="H112">
         <v>3.4</v>
       </c>
-      <c r="I112">
-        <v>40.799999999999997</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>1404</v>
       </c>
@@ -5210,11 +4870,8 @@
       <c r="H113">
         <v>2.2400000000000002</v>
       </c>
-      <c r="I113">
-        <v>26.88</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>1412</v>
       </c>
@@ -5239,11 +4896,8 @@
       <c r="H114">
         <v>3.98</v>
       </c>
-      <c r="I114">
-        <v>47.76</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>2512</v>
       </c>
@@ -5268,11 +4922,8 @@
       <c r="H115">
         <v>3.52</v>
       </c>
-      <c r="I115">
-        <v>42.24</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>3304</v>
       </c>
@@ -5297,11 +4948,8 @@
       <c r="H116">
         <v>3.52</v>
       </c>
-      <c r="I116">
-        <v>42.24</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>3804</v>
       </c>
@@ -5326,11 +4974,8 @@
       <c r="H117" s="4">
         <v>3.29</v>
       </c>
-      <c r="I117" s="4">
-        <v>39.479999999999997</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>3404</v>
       </c>
@@ -5355,11 +5000,8 @@
       <c r="H118">
         <v>1.92</v>
       </c>
-      <c r="I118">
-        <v>23.04</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>3504</v>
       </c>
@@ -5384,11 +5026,8 @@
       <c r="H119">
         <v>1.92</v>
       </c>
-      <c r="I119">
-        <v>23.04</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>3904</v>
       </c>
@@ -5413,11 +5052,8 @@
       <c r="H120">
         <v>2.19</v>
       </c>
-      <c r="I120">
-        <v>26.28</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>3704</v>
       </c>
@@ -5442,11 +5078,8 @@
       <c r="H121" s="4">
         <v>2.19</v>
       </c>
-      <c r="I121" s="4">
-        <v>26.28</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>8109</v>
       </c>
@@ -5471,11 +5104,8 @@
       <c r="H122">
         <v>1.53</v>
       </c>
-      <c r="I122">
-        <v>18.36</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>6838</v>
       </c>
@@ -5500,11 +5130,8 @@
       <c r="H123">
         <v>3.4</v>
       </c>
-      <c r="I123">
-        <v>40.799999999999997</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>6839</v>
       </c>
@@ -5529,11 +5156,8 @@
       <c r="H124">
         <v>3.4</v>
       </c>
-      <c r="I124">
-        <v>40.799999999999997</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>8102</v>
       </c>
@@ -5558,11 +5182,8 @@
       <c r="H125">
         <v>1.64</v>
       </c>
-      <c r="I125">
-        <v>19.68</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>8103</v>
       </c>
@@ -5587,11 +5208,8 @@
       <c r="H126">
         <v>1.64</v>
       </c>
-      <c r="I126">
-        <v>19.68</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>8104</v>
       </c>
@@ -5616,11 +5234,8 @@
       <c r="H127">
         <v>1.64</v>
       </c>
-      <c r="I127">
-        <v>19.68</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>8105</v>
       </c>
@@ -5645,11 +5260,8 @@
       <c r="H128">
         <v>1.64</v>
       </c>
-      <c r="I128">
-        <v>19.68</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>8107</v>
       </c>
@@ -5671,11 +5283,8 @@
       <c r="H129">
         <v>78.67</v>
       </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>8108</v>
       </c>
@@ -5700,11 +5309,8 @@
       <c r="H130">
         <v>1.64</v>
       </c>
-      <c r="I130">
-        <v>19.68</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>8111</v>
       </c>
@@ -5729,11 +5335,8 @@
       <c r="H131">
         <v>1.64</v>
       </c>
-      <c r="I131">
-        <v>19.68</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>8113</v>
       </c>
@@ -5758,11 +5361,8 @@
       <c r="H132">
         <v>1.64</v>
       </c>
-      <c r="I132">
-        <v>19.68</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>8114</v>
       </c>
@@ -5787,11 +5387,8 @@
       <c r="H133">
         <v>1.64</v>
       </c>
-      <c r="I133">
-        <v>19.68</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>8100</v>
       </c>
@@ -5813,11 +5410,8 @@
       <c r="H134">
         <v>78.67</v>
       </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>2540</v>
       </c>
@@ -5842,11 +5436,8 @@
       <c r="H135">
         <v>4.49</v>
       </c>
-      <c r="I135">
-        <v>26.94</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>2621</v>
       </c>
@@ -5871,11 +5462,8 @@
       <c r="H136">
         <v>2.4300000000000002</v>
       </c>
-      <c r="I136">
-        <v>29.16</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>2620</v>
       </c>
@@ -5900,11 +5488,8 @@
       <c r="H137">
         <v>4.49</v>
       </c>
-      <c r="I137">
-        <v>53.88</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>2555</v>
       </c>
@@ -5929,11 +5514,8 @@
       <c r="H138">
         <v>12.84</v>
       </c>
-      <c r="I138">
-        <v>77.040000000000006</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>2556</v>
       </c>
@@ -5958,11 +5540,8 @@
       <c r="H139">
         <v>12.84</v>
       </c>
-      <c r="I139">
-        <v>77.040000000000006</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>2557</v>
       </c>
@@ -5987,11 +5566,8 @@
       <c r="H140">
         <v>6.41</v>
       </c>
-      <c r="I140">
-        <v>38.46</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>2558</v>
       </c>
@@ -6016,11 +5592,8 @@
       <c r="H141" s="4">
         <v>11.23</v>
       </c>
-      <c r="I141" s="4">
-        <v>67.38</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>8635</v>
       </c>
@@ -6045,11 +5618,8 @@
       <c r="H142">
         <v>3.84</v>
       </c>
-      <c r="I142">
-        <v>46.08</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>8636</v>
       </c>
@@ -6074,11 +5644,8 @@
       <c r="H143">
         <v>3.84</v>
       </c>
-      <c r="I143">
-        <v>46.08</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>8637</v>
       </c>
@@ -6103,11 +5670,8 @@
       <c r="H144">
         <v>6.99</v>
       </c>
-      <c r="I144">
-        <v>41.94</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>8638</v>
       </c>
@@ -6132,11 +5696,8 @@
       <c r="H145">
         <v>6.99</v>
       </c>
-      <c r="I145">
-        <v>41.94</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>807</v>
       </c>
@@ -6161,11 +5722,8 @@
       <c r="H146">
         <v>1.39</v>
       </c>
-      <c r="I146">
-        <v>8.34</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>808</v>
       </c>
@@ -6190,11 +5748,8 @@
       <c r="H147">
         <v>1.39</v>
       </c>
-      <c r="I147">
-        <v>8.34</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>809</v>
       </c>
@@ -6219,11 +5774,8 @@
       <c r="H148">
         <v>1.39</v>
       </c>
-      <c r="I148">
-        <v>8.34</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>810</v>
       </c>
@@ -6248,11 +5800,8 @@
       <c r="H149">
         <v>1.39</v>
       </c>
-      <c r="I149">
-        <v>8.34</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>811</v>
       </c>
@@ -6277,11 +5826,8 @@
       <c r="H150">
         <v>1.39</v>
       </c>
-      <c r="I150">
-        <v>8.34</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>826</v>
       </c>
@@ -6306,11 +5852,8 @@
       <c r="H151">
         <v>1.39</v>
       </c>
-      <c r="I151">
-        <v>8.34</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>813</v>
       </c>
@@ -6335,11 +5878,8 @@
       <c r="H152">
         <v>1.39</v>
       </c>
-      <c r="I152">
-        <v>8.34</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>814</v>
       </c>
@@ -6364,11 +5904,8 @@
       <c r="H153">
         <v>1.39</v>
       </c>
-      <c r="I153">
-        <v>8.34</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>816</v>
       </c>
@@ -6393,11 +5930,8 @@
       <c r="H154">
         <v>1.39</v>
       </c>
-      <c r="I154">
-        <v>8.34</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>817</v>
       </c>
@@ -6422,11 +5956,8 @@
       <c r="H155">
         <v>1.39</v>
       </c>
-      <c r="I155">
-        <v>8.34</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>821</v>
       </c>
@@ -6451,11 +5982,8 @@
       <c r="H156">
         <v>1.39</v>
       </c>
-      <c r="I156">
-        <v>8.34</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>822</v>
       </c>
@@ -6480,11 +6008,8 @@
       <c r="H157">
         <v>1.39</v>
       </c>
-      <c r="I157">
-        <v>8.34</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>823</v>
       </c>
@@ -6509,11 +6034,8 @@
       <c r="H158">
         <v>1.39</v>
       </c>
-      <c r="I158">
-        <v>8.34</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>824</v>
       </c>
@@ -6538,11 +6060,8 @@
       <c r="H159">
         <v>1.39</v>
       </c>
-      <c r="I159">
-        <v>8.34</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>907</v>
       </c>
@@ -6567,11 +6086,8 @@
       <c r="H160">
         <v>2.41</v>
       </c>
-      <c r="I160">
-        <v>14.46</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>909</v>
       </c>
@@ -6596,11 +6112,8 @@
       <c r="H161">
         <v>2.41</v>
       </c>
-      <c r="I161">
-        <v>14.46</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>911</v>
       </c>
@@ -6625,11 +6138,8 @@
       <c r="H162">
         <v>2.41</v>
       </c>
-      <c r="I162">
-        <v>14.46</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>926</v>
       </c>
@@ -6654,11 +6164,8 @@
       <c r="H163">
         <v>2.41</v>
       </c>
-      <c r="I163">
-        <v>14.46</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>916</v>
       </c>
@@ -6683,11 +6190,8 @@
       <c r="H164">
         <v>2.41</v>
       </c>
-      <c r="I164">
-        <v>14.46</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>921</v>
       </c>
@@ -6712,11 +6216,8 @@
       <c r="H165">
         <v>2.41</v>
       </c>
-      <c r="I165">
-        <v>14.46</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>923</v>
       </c>
@@ -6741,11 +6242,8 @@
       <c r="H166">
         <v>2.41</v>
       </c>
-      <c r="I166">
-        <v>14.46</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>924</v>
       </c>
@@ -6770,11 +6268,8 @@
       <c r="H167">
         <v>2.41</v>
       </c>
-      <c r="I167">
-        <v>14.46</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>57974</v>
       </c>
@@ -6799,11 +6294,8 @@
       <c r="H168">
         <v>0.75</v>
       </c>
-      <c r="I168">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>57975</v>
       </c>
@@ -6828,11 +6320,8 @@
       <c r="H169">
         <v>0.75</v>
       </c>
-      <c r="I169">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>57976</v>
       </c>
@@ -6857,11 +6346,8 @@
       <c r="H170">
         <v>0.75</v>
       </c>
-      <c r="I170">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>57977</v>
       </c>
@@ -6886,11 +6372,8 @@
       <c r="H171">
         <v>0.75</v>
       </c>
-      <c r="I171">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>57978</v>
       </c>
@@ -6915,11 +6398,8 @@
       <c r="H172">
         <v>0.75</v>
       </c>
-      <c r="I172">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>57979</v>
       </c>
@@ -6944,11 +6424,8 @@
       <c r="H173">
         <v>0.75</v>
       </c>
-      <c r="I173">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>57980</v>
       </c>
@@ -6973,11 +6450,8 @@
       <c r="H174">
         <v>0.75</v>
       </c>
-      <c r="I174">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>57981</v>
       </c>
@@ -7002,11 +6476,8 @@
       <c r="H175">
         <v>0.75</v>
       </c>
-      <c r="I175">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>57982</v>
       </c>
@@ -7031,11 +6502,8 @@
       <c r="H176">
         <v>0.75</v>
       </c>
-      <c r="I176">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>57983</v>
       </c>
@@ -7060,11 +6528,8 @@
       <c r="H177">
         <v>0.75</v>
       </c>
-      <c r="I177">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>57984</v>
       </c>
@@ -7089,11 +6554,8 @@
       <c r="H178">
         <v>0.75</v>
       </c>
-      <c r="I178">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>57985</v>
       </c>
@@ -7118,11 +6580,8 @@
       <c r="H179">
         <v>0.75</v>
       </c>
-      <c r="I179">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>57986</v>
       </c>
@@ -7147,11 +6606,8 @@
       <c r="H180">
         <v>0.75</v>
       </c>
-      <c r="I180">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>57987</v>
       </c>
@@ -7176,11 +6632,8 @@
       <c r="H181">
         <v>0.75</v>
       </c>
-      <c r="I181">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>57988</v>
       </c>
@@ -7205,11 +6658,8 @@
       <c r="H182">
         <v>0.75</v>
       </c>
-      <c r="I182">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>57989</v>
       </c>
@@ -7234,11 +6684,8 @@
       <c r="H183">
         <v>0.75</v>
       </c>
-      <c r="I183">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>57990</v>
       </c>
@@ -7263,11 +6710,8 @@
       <c r="H184">
         <v>0.75</v>
       </c>
-      <c r="I184">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>57991</v>
       </c>
@@ -7292,11 +6736,8 @@
       <c r="H185">
         <v>0.75</v>
       </c>
-      <c r="I185">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>58000</v>
       </c>
@@ -7321,11 +6762,8 @@
       <c r="H186">
         <v>0.75</v>
       </c>
-      <c r="I186">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>58001</v>
       </c>
@@ -7350,11 +6788,8 @@
       <c r="H187">
         <v>2.12</v>
       </c>
-      <c r="I187">
-        <v>25.44</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>58002</v>
       </c>
@@ -7379,11 +6814,8 @@
       <c r="H188">
         <v>2.12</v>
       </c>
-      <c r="I188">
-        <v>25.44</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>58003</v>
       </c>
@@ -7408,11 +6840,8 @@
       <c r="H189">
         <v>2.12</v>
       </c>
-      <c r="I189">
-        <v>25.44</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>58004</v>
       </c>
@@ -7437,11 +6866,8 @@
       <c r="H190">
         <v>2.12</v>
       </c>
-      <c r="I190">
-        <v>25.44</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>58005</v>
       </c>
@@ -7466,11 +6892,8 @@
       <c r="H191">
         <v>2.12</v>
       </c>
-      <c r="I191">
-        <v>25.44</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>58006</v>
       </c>
@@ -7495,11 +6918,8 @@
       <c r="H192">
         <v>2.12</v>
       </c>
-      <c r="I192">
-        <v>25.44</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>58007</v>
       </c>
@@ -7524,11 +6944,8 @@
       <c r="H193">
         <v>2.12</v>
       </c>
-      <c r="I193">
-        <v>25.44</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>58008</v>
       </c>
@@ -7553,11 +6970,8 @@
       <c r="H194">
         <v>2.12</v>
       </c>
-      <c r="I194">
-        <v>25.44</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>81872</v>
       </c>
@@ -7582,11 +6996,8 @@
       <c r="H195">
         <v>3.59</v>
       </c>
-      <c r="I195">
-        <v>21.54</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>81873</v>
       </c>
@@ -7611,11 +7022,8 @@
       <c r="H196">
         <v>3.59</v>
       </c>
-      <c r="I196">
-        <v>21.54</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>81874</v>
       </c>
@@ -7640,11 +7048,8 @@
       <c r="H197">
         <v>3.59</v>
       </c>
-      <c r="I197">
-        <v>21.54</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>81875</v>
       </c>
@@ -7669,11 +7074,8 @@
       <c r="H198">
         <v>3.59</v>
       </c>
-      <c r="I198">
-        <v>21.54</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>81876</v>
       </c>
@@ -7698,11 +7100,8 @@
       <c r="H199">
         <v>3.59</v>
       </c>
-      <c r="I199">
-        <v>21.54</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>81877</v>
       </c>
@@ -7727,11 +7126,8 @@
       <c r="H200">
         <v>3.59</v>
       </c>
-      <c r="I200">
-        <v>21.54</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>81916</v>
       </c>
@@ -7750,11 +7146,8 @@
       <c r="H201">
         <v>65</v>
       </c>
-      <c r="I201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>8351</v>
       </c>
@@ -7779,11 +7172,8 @@
       <c r="H202">
         <v>4.3099999999999996</v>
       </c>
-      <c r="I202">
-        <v>51.72</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>8352</v>
       </c>
@@ -7808,11 +7198,8 @@
       <c r="H203">
         <v>2.7</v>
       </c>
-      <c r="I203">
-        <v>32.4</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>8353</v>
       </c>
@@ -7837,11 +7224,8 @@
       <c r="H204">
         <v>1.37</v>
       </c>
-      <c r="I204">
-        <v>32.880000000000003</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>1904</v>
       </c>
@@ -7866,11 +7250,8 @@
       <c r="H205">
         <v>4.79</v>
       </c>
-      <c r="I205">
-        <v>28.74</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>1901</v>
       </c>
@@ -7895,11 +7276,8 @@
       <c r="H206">
         <v>4.79</v>
       </c>
-      <c r="I206">
-        <v>28.74</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>1900</v>
       </c>
@@ -7924,11 +7302,8 @@
       <c r="H207">
         <v>4.79</v>
       </c>
-      <c r="I207">
-        <v>28.74</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>1899</v>
       </c>
@@ -7953,11 +7328,8 @@
       <c r="H208">
         <v>4.79</v>
       </c>
-      <c r="I208">
-        <v>28.74</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>1902</v>
       </c>
@@ -7982,11 +7354,8 @@
       <c r="H209">
         <v>4.79</v>
       </c>
-      <c r="I209">
-        <v>28.74</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>1903</v>
       </c>
@@ -8011,11 +7380,8 @@
       <c r="H210">
         <v>4.79</v>
       </c>
-      <c r="I210">
-        <v>28.74</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>1905</v>
       </c>
@@ -8037,11 +7403,8 @@
       <c r="H211">
         <v>110.96</v>
       </c>
-      <c r="I211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>8390</v>
       </c>
@@ -8066,11 +7429,8 @@
       <c r="H212">
         <v>4.1900000000000004</v>
       </c>
-      <c r="I212">
-        <v>25.14</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>8392</v>
       </c>
@@ -8095,11 +7455,8 @@
       <c r="H213">
         <v>4.1900000000000004</v>
       </c>
-      <c r="I213">
-        <v>25.14</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>8393</v>
       </c>
@@ -8124,11 +7481,8 @@
       <c r="H214">
         <v>8.89</v>
       </c>
-      <c r="I214">
-        <v>53.34</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>8394</v>
       </c>
@@ -8153,11 +7507,8 @@
       <c r="H215">
         <v>8.89</v>
       </c>
-      <c r="I215">
-        <v>53.34</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>8380</v>
       </c>
@@ -8182,11 +7533,8 @@
       <c r="H216">
         <v>1.28</v>
       </c>
-      <c r="I216">
-        <v>7.68</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>8384</v>
       </c>
@@ -8211,11 +7559,8 @@
       <c r="H217">
         <v>1.28</v>
       </c>
-      <c r="I217">
-        <v>7.68</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>8385</v>
       </c>
@@ -8240,11 +7585,8 @@
       <c r="H218">
         <v>2.11</v>
       </c>
-      <c r="I218">
-        <v>12.66</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>8389</v>
       </c>
@@ -8269,11 +7611,8 @@
       <c r="H219">
         <v>2.11</v>
       </c>
-      <c r="I219">
-        <v>12.66</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>81917</v>
       </c>
@@ -8298,11 +7637,8 @@
       <c r="H220">
         <v>1.5</v>
       </c>
-      <c r="I220">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>81918</v>
       </c>
@@ -8327,11 +7663,8 @@
       <c r="H221">
         <v>2.5</v>
       </c>
-      <c r="I221">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>81919</v>
       </c>
@@ -8356,11 +7689,8 @@
       <c r="H222">
         <v>1.5</v>
       </c>
-      <c r="I222">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>81920</v>
       </c>
@@ -8385,11 +7715,8 @@
       <c r="H223">
         <v>2.5</v>
       </c>
-      <c r="I223">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>81861</v>
       </c>
@@ -8414,11 +7741,8 @@
       <c r="H224">
         <v>1.65</v>
       </c>
-      <c r="I224">
-        <v>118.8</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>81862</v>
       </c>
@@ -8443,11 +7767,8 @@
       <c r="H225">
         <v>1.65</v>
       </c>
-      <c r="I225">
-        <v>118.8</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>81863</v>
       </c>
@@ -8472,11 +7793,8 @@
       <c r="H226">
         <v>3.25</v>
       </c>
-      <c r="I226">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>81864</v>
       </c>
@@ -8501,11 +7819,8 @@
       <c r="H227">
         <v>3.25</v>
       </c>
-      <c r="I227">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>24683</v>
       </c>
@@ -8530,11 +7845,8 @@
       <c r="H228">
         <v>1.19</v>
       </c>
-      <c r="I228">
-        <v>42.84</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>24693</v>
       </c>
@@ -8559,11 +7871,8 @@
       <c r="H229">
         <v>1.19</v>
       </c>
-      <c r="I229">
-        <v>42.84</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>411</v>
       </c>
@@ -8588,11 +7897,8 @@
       <c r="H230">
         <v>6.29</v>
       </c>
-      <c r="I230">
-        <v>37.74</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>412</v>
       </c>
@@ -8617,11 +7923,8 @@
       <c r="H231">
         <v>6.29</v>
       </c>
-      <c r="I231">
-        <v>37.74</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>413</v>
       </c>
@@ -8646,11 +7949,8 @@
       <c r="H232">
         <v>8.09</v>
       </c>
-      <c r="I232">
-        <v>194.16</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>415</v>
       </c>
@@ -8675,11 +7975,8 @@
       <c r="H233">
         <v>8.09</v>
       </c>
-      <c r="I233">
-        <v>194.16</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>422</v>
       </c>
@@ -8704,11 +8001,8 @@
       <c r="H234">
         <v>6.29</v>
       </c>
-      <c r="I234">
-        <v>75.48</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>423</v>
       </c>
@@ -8733,11 +8027,8 @@
       <c r="H235" s="4">
         <v>6.29</v>
       </c>
-      <c r="I235" s="4">
-        <v>75.48</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>424</v>
       </c>
@@ -8762,11 +8053,8 @@
       <c r="H236">
         <v>6.29</v>
       </c>
-      <c r="I236">
-        <v>75.48</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>430</v>
       </c>
@@ -8791,11 +8079,8 @@
       <c r="H237">
         <v>8.09</v>
       </c>
-      <c r="I237">
-        <v>194.16</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>433</v>
       </c>
@@ -8820,11 +8105,8 @@
       <c r="H238">
         <v>6.29</v>
       </c>
-      <c r="I238">
-        <v>75.48</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>435</v>
       </c>
@@ -8849,11 +8131,8 @@
       <c r="H239">
         <v>6.29</v>
       </c>
-      <c r="I239">
-        <v>75.48</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>442</v>
       </c>
@@ -8878,11 +8157,8 @@
       <c r="H240">
         <v>6.29</v>
       </c>
-      <c r="I240">
-        <v>75.48</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>456</v>
       </c>
@@ -8907,11 +8183,8 @@
       <c r="H241">
         <v>6.29</v>
       </c>
-      <c r="I241">
-        <v>150.96</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>467</v>
       </c>
@@ -8935,9 +8208,6 @@
       </c>
       <c r="H242">
         <v>6.29</v>
-      </c>
-      <c r="I242">
-        <v>75.48</v>
       </c>
     </row>
   </sheetData>

--- a/UBP_Price.xlsx
+++ b/UBP_Price.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universalbeauty-my.sharepoint.com/personal/y_lee_universalbeauty_com/Documents/YoungSunLee/Develop/pricecheck/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyApp\pricecheck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="417" documentId="8_{2EA92289-AFF7-45F3-94D3-4549B2A8F483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEFC9F38-AC29-4AF2-AF2B-7BC099FEEEB6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6903C496-E880-430F-AA57-924B8926F47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{180F7D42-C005-46EA-91A1-F109AC7E0FF3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="731">
   <si>
     <t xml:space="preserve">ITEM NO. </t>
   </si>
@@ -1506,6 +1506,729 @@
   </si>
   <si>
     <t>RT UNIT PRICE</t>
+  </si>
+  <si>
+    <t>29407</t>
+  </si>
+  <si>
+    <t>29420</t>
+  </si>
+  <si>
+    <t>29060</t>
+  </si>
+  <si>
+    <t>29066</t>
+  </si>
+  <si>
+    <t>29070</t>
+  </si>
+  <si>
+    <t>29076</t>
+  </si>
+  <si>
+    <t>29040</t>
+  </si>
+  <si>
+    <t>29042</t>
+  </si>
+  <si>
+    <t>29041</t>
+  </si>
+  <si>
+    <t>29043</t>
+  </si>
+  <si>
+    <t>29030</t>
+  </si>
+  <si>
+    <t>29300</t>
+  </si>
+  <si>
+    <t>29404</t>
+  </si>
+  <si>
+    <t>29406</t>
+  </si>
+  <si>
+    <t>29094</t>
+  </si>
+  <si>
+    <t>29020</t>
+  </si>
+  <si>
+    <t>29010</t>
+  </si>
+  <si>
+    <t>29093</t>
+  </si>
+  <si>
+    <t>29302</t>
+  </si>
+  <si>
+    <t>29050</t>
+  </si>
+  <si>
+    <t>29055</t>
+  </si>
+  <si>
+    <t>29080</t>
+  </si>
+  <si>
+    <t>29085</t>
+  </si>
+  <si>
+    <t>29401</t>
+  </si>
+  <si>
+    <t>29402</t>
+  </si>
+  <si>
+    <t>29405</t>
+  </si>
+  <si>
+    <t>29409</t>
+  </si>
+  <si>
+    <t>29092</t>
+  </si>
+  <si>
+    <t>29304</t>
+  </si>
+  <si>
+    <t>29095</t>
+  </si>
+  <si>
+    <t>29096</t>
+  </si>
+  <si>
+    <t>29097</t>
+  </si>
+  <si>
+    <t>29098</t>
+  </si>
+  <si>
+    <t>02262</t>
+  </si>
+  <si>
+    <t>02263</t>
+  </si>
+  <si>
+    <t>02200</t>
+  </si>
+  <si>
+    <t>02202</t>
+  </si>
+  <si>
+    <t>02201</t>
+  </si>
+  <si>
+    <t>02206</t>
+  </si>
+  <si>
+    <t>02255</t>
+  </si>
+  <si>
+    <t>02256</t>
+  </si>
+  <si>
+    <t>02257</t>
+  </si>
+  <si>
+    <t>02258</t>
+  </si>
+  <si>
+    <t>02261</t>
+  </si>
+  <si>
+    <t>02265</t>
+  </si>
+  <si>
+    <t>02286</t>
+  </si>
+  <si>
+    <t>02287</t>
+  </si>
+  <si>
+    <t>02288</t>
+  </si>
+  <si>
+    <t>02289</t>
+  </si>
+  <si>
+    <t>02296</t>
+  </si>
+  <si>
+    <t>02295</t>
+  </si>
+  <si>
+    <t>02316</t>
+  </si>
+  <si>
+    <t>02315</t>
+  </si>
+  <si>
+    <t>02312</t>
+  </si>
+  <si>
+    <t>81015</t>
+  </si>
+  <si>
+    <t>81016</t>
+  </si>
+  <si>
+    <t>81017</t>
+  </si>
+  <si>
+    <t>81018</t>
+  </si>
+  <si>
+    <t>81019</t>
+  </si>
+  <si>
+    <t>81022</t>
+  </si>
+  <si>
+    <t>81020</t>
+  </si>
+  <si>
+    <t>81921</t>
+  </si>
+  <si>
+    <t>81034</t>
+  </si>
+  <si>
+    <t>81976</t>
+  </si>
+  <si>
+    <t>81978</t>
+  </si>
+  <si>
+    <t>81024</t>
+  </si>
+  <si>
+    <t>76090</t>
+  </si>
+  <si>
+    <t>76070</t>
+  </si>
+  <si>
+    <t>76086</t>
+  </si>
+  <si>
+    <t>76087</t>
+  </si>
+  <si>
+    <t>76083</t>
+  </si>
+  <si>
+    <t>76084</t>
+  </si>
+  <si>
+    <t>76085</t>
+  </si>
+  <si>
+    <t>76081</t>
+  </si>
+  <si>
+    <t>81500</t>
+  </si>
+  <si>
+    <t>76082</t>
+  </si>
+  <si>
+    <t>13059</t>
+  </si>
+  <si>
+    <t>13061</t>
+  </si>
+  <si>
+    <t>13060</t>
+  </si>
+  <si>
+    <t>13062</t>
+  </si>
+  <si>
+    <t>81925</t>
+  </si>
+  <si>
+    <t>81926</t>
+  </si>
+  <si>
+    <t>81929</t>
+  </si>
+  <si>
+    <t>81932</t>
+  </si>
+  <si>
+    <t>81033</t>
+  </si>
+  <si>
+    <t>81927</t>
+  </si>
+  <si>
+    <t>81928</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2441</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2416</t>
+  </si>
+  <si>
+    <t>2415</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2448</t>
+  </si>
+  <si>
+    <t>2440</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2414</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2413</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>1204</t>
+  </si>
+  <si>
+    <t>1207</t>
+  </si>
+  <si>
+    <t>1312</t>
+  </si>
+  <si>
+    <t>1404</t>
+  </si>
+  <si>
+    <t>1412</t>
+  </si>
+  <si>
+    <t>2512</t>
+  </si>
+  <si>
+    <t>3304</t>
+  </si>
+  <si>
+    <t>3804</t>
+  </si>
+  <si>
+    <t>3404</t>
+  </si>
+  <si>
+    <t>3504</t>
+  </si>
+  <si>
+    <t>3904</t>
+  </si>
+  <si>
+    <t>3704</t>
+  </si>
+  <si>
+    <t>8109</t>
+  </si>
+  <si>
+    <t>6838</t>
+  </si>
+  <si>
+    <t>6839</t>
+  </si>
+  <si>
+    <t>8102</t>
+  </si>
+  <si>
+    <t>8103</t>
+  </si>
+  <si>
+    <t>8104</t>
+  </si>
+  <si>
+    <t>8105</t>
+  </si>
+  <si>
+    <t>8107</t>
+  </si>
+  <si>
+    <t>8108</t>
+  </si>
+  <si>
+    <t>8111</t>
+  </si>
+  <si>
+    <t>8113</t>
+  </si>
+  <si>
+    <t>8114</t>
+  </si>
+  <si>
+    <t>8100</t>
+  </si>
+  <si>
+    <t>2540</t>
+  </si>
+  <si>
+    <t>2621</t>
+  </si>
+  <si>
+    <t>2620</t>
+  </si>
+  <si>
+    <t>2555</t>
+  </si>
+  <si>
+    <t>2556</t>
+  </si>
+  <si>
+    <t>2557</t>
+  </si>
+  <si>
+    <t>2558</t>
+  </si>
+  <si>
+    <t>8635</t>
+  </si>
+  <si>
+    <t>8636</t>
+  </si>
+  <si>
+    <t>8637</t>
+  </si>
+  <si>
+    <t>8638</t>
+  </si>
+  <si>
+    <t>807</t>
+  </si>
+  <si>
+    <t>808</t>
+  </si>
+  <si>
+    <t>809</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>811</t>
+  </si>
+  <si>
+    <t>826</t>
+  </si>
+  <si>
+    <t>813</t>
+  </si>
+  <si>
+    <t>814</t>
+  </si>
+  <si>
+    <t>816</t>
+  </si>
+  <si>
+    <t>817</t>
+  </si>
+  <si>
+    <t>821</t>
+  </si>
+  <si>
+    <t>822</t>
+  </si>
+  <si>
+    <t>823</t>
+  </si>
+  <si>
+    <t>824</t>
+  </si>
+  <si>
+    <t>907</t>
+  </si>
+  <si>
+    <t>909</t>
+  </si>
+  <si>
+    <t>911</t>
+  </si>
+  <si>
+    <t>926</t>
+  </si>
+  <si>
+    <t>916</t>
+  </si>
+  <si>
+    <t>921</t>
+  </si>
+  <si>
+    <t>923</t>
+  </si>
+  <si>
+    <t>924</t>
+  </si>
+  <si>
+    <t>57974</t>
+  </si>
+  <si>
+    <t>57975</t>
+  </si>
+  <si>
+    <t>57976</t>
+  </si>
+  <si>
+    <t>57977</t>
+  </si>
+  <si>
+    <t>57978</t>
+  </si>
+  <si>
+    <t>57979</t>
+  </si>
+  <si>
+    <t>57980</t>
+  </si>
+  <si>
+    <t>57981</t>
+  </si>
+  <si>
+    <t>57982</t>
+  </si>
+  <si>
+    <t>57983</t>
+  </si>
+  <si>
+    <t>57984</t>
+  </si>
+  <si>
+    <t>57985</t>
+  </si>
+  <si>
+    <t>57986</t>
+  </si>
+  <si>
+    <t>57987</t>
+  </si>
+  <si>
+    <t>57988</t>
+  </si>
+  <si>
+    <t>57989</t>
+  </si>
+  <si>
+    <t>57990</t>
+  </si>
+  <si>
+    <t>57991</t>
+  </si>
+  <si>
+    <t>58000</t>
+  </si>
+  <si>
+    <t>58001</t>
+  </si>
+  <si>
+    <t>58002</t>
+  </si>
+  <si>
+    <t>58003</t>
+  </si>
+  <si>
+    <t>58004</t>
+  </si>
+  <si>
+    <t>58005</t>
+  </si>
+  <si>
+    <t>58006</t>
+  </si>
+  <si>
+    <t>58007</t>
+  </si>
+  <si>
+    <t>58008</t>
+  </si>
+  <si>
+    <t>81872</t>
+  </si>
+  <si>
+    <t>81873</t>
+  </si>
+  <si>
+    <t>81874</t>
+  </si>
+  <si>
+    <t>81875</t>
+  </si>
+  <si>
+    <t>81876</t>
+  </si>
+  <si>
+    <t>81877</t>
+  </si>
+  <si>
+    <t>81916</t>
+  </si>
+  <si>
+    <t>8351</t>
+  </si>
+  <si>
+    <t>8352</t>
+  </si>
+  <si>
+    <t>8353</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>1899</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>8390</t>
+  </si>
+  <si>
+    <t>8392</t>
+  </si>
+  <si>
+    <t>8393</t>
+  </si>
+  <si>
+    <t>8394</t>
+  </si>
+  <si>
+    <t>8380</t>
+  </si>
+  <si>
+    <t>8384</t>
+  </si>
+  <si>
+    <t>8385</t>
+  </si>
+  <si>
+    <t>8389</t>
+  </si>
+  <si>
+    <t>81917</t>
+  </si>
+  <si>
+    <t>81918</t>
+  </si>
+  <si>
+    <t>81919</t>
+  </si>
+  <si>
+    <t>81920</t>
+  </si>
+  <si>
+    <t>81861</t>
+  </si>
+  <si>
+    <t>81862</t>
+  </si>
+  <si>
+    <t>81863</t>
+  </si>
+  <si>
+    <t>81864</t>
+  </si>
+  <si>
+    <t>24683</t>
+  </si>
+  <si>
+    <t>24693</t>
+  </si>
+  <si>
+    <t>00411</t>
+  </si>
+  <si>
+    <t>00412</t>
+  </si>
+  <si>
+    <t>00413</t>
+  </si>
+  <si>
+    <t>00415</t>
+  </si>
+  <si>
+    <t>00422</t>
+  </si>
+  <si>
+    <t>00423</t>
+  </si>
+  <si>
+    <t>00424</t>
+  </si>
+  <si>
+    <t>00430</t>
+  </si>
+  <si>
+    <t>00433</t>
+  </si>
+  <si>
+    <t>00435</t>
+  </si>
+  <si>
+    <t>00442</t>
+  </si>
+  <si>
+    <t>00456</t>
+  </si>
+  <si>
+    <t>00467</t>
   </si>
 </sst>
 </file>
@@ -1598,10 +2321,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1924,7 +2643,7 @@
   <dimension ref="A1:H242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1966,8 +2685,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>29407</v>
+      <c r="A2" s="1" t="s">
+        <v>490</v>
       </c>
       <c r="B2" t="s">
         <v>200</v>
@@ -1992,8 +2711,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>29420</v>
+      <c r="A3" s="1" t="s">
+        <v>491</v>
       </c>
       <c r="B3" t="s">
         <v>201</v>
@@ -2018,8 +2737,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>29060</v>
+      <c r="A4" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="B4" t="s">
         <v>202</v>
@@ -2044,8 +2763,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>29066</v>
+      <c r="A5" s="1" t="s">
+        <v>493</v>
       </c>
       <c r="B5" t="s">
         <v>203</v>
@@ -2070,8 +2789,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>29070</v>
+      <c r="A6" s="1" t="s">
+        <v>494</v>
       </c>
       <c r="B6" t="s">
         <v>204</v>
@@ -2096,8 +2815,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>29076</v>
+      <c r="A7" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="B7" t="s">
         <v>205</v>
@@ -2122,8 +2841,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>29040</v>
+      <c r="A8" s="1" t="s">
+        <v>496</v>
       </c>
       <c r="B8" t="s">
         <v>206</v>
@@ -2148,8 +2867,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>29042</v>
+      <c r="A9" s="1" t="s">
+        <v>497</v>
       </c>
       <c r="B9" t="s">
         <v>207</v>
@@ -2174,8 +2893,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>29041</v>
+      <c r="A10" s="2" t="s">
+        <v>498</v>
       </c>
       <c r="B10" t="s">
         <v>208</v>
@@ -2200,8 +2919,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>29043</v>
+      <c r="A11" s="1" t="s">
+        <v>499</v>
       </c>
       <c r="B11" t="s">
         <v>209</v>
@@ -2226,8 +2945,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>29030</v>
+      <c r="A12" s="1" t="s">
+        <v>500</v>
       </c>
       <c r="B12" t="s">
         <v>210</v>
@@ -2252,8 +2971,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>29300</v>
+      <c r="A13" s="1" t="s">
+        <v>501</v>
       </c>
       <c r="B13" t="s">
         <v>211</v>
@@ -2278,8 +2997,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>29404</v>
+      <c r="A14" s="2" t="s">
+        <v>502</v>
       </c>
       <c r="B14" t="s">
         <v>212</v>
@@ -2304,8 +3023,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>29406</v>
+      <c r="A15" s="2" t="s">
+        <v>503</v>
       </c>
       <c r="B15" t="s">
         <v>213</v>
@@ -2330,8 +3049,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>29094</v>
+      <c r="A16" s="2" t="s">
+        <v>504</v>
       </c>
       <c r="B16" t="s">
         <v>214</v>
@@ -2356,8 +3075,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>29020</v>
+      <c r="A17" s="2" t="s">
+        <v>505</v>
       </c>
       <c r="B17" t="s">
         <v>215</v>
@@ -2382,8 +3101,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>29010</v>
+      <c r="A18" s="2" t="s">
+        <v>506</v>
       </c>
       <c r="B18" t="s">
         <v>216</v>
@@ -2408,8 +3127,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>29093</v>
+      <c r="A19" s="2" t="s">
+        <v>507</v>
       </c>
       <c r="B19" t="s">
         <v>217</v>
@@ -2434,8 +3153,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>29302</v>
+      <c r="A20" s="2" t="s">
+        <v>508</v>
       </c>
       <c r="B20" t="s">
         <v>218</v>
@@ -2460,8 +3179,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>29050</v>
+      <c r="A21" s="2" t="s">
+        <v>509</v>
       </c>
       <c r="B21" t="s">
         <v>219</v>
@@ -2486,8 +3205,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>29055</v>
+      <c r="A22" s="2" t="s">
+        <v>510</v>
       </c>
       <c r="B22" t="s">
         <v>220</v>
@@ -2512,8 +3231,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>29080</v>
+      <c r="A23" s="2" t="s">
+        <v>511</v>
       </c>
       <c r="B23" t="s">
         <v>222</v>
@@ -2538,8 +3257,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>29085</v>
+      <c r="A24" s="2" t="s">
+        <v>512</v>
       </c>
       <c r="B24" t="s">
         <v>223</v>
@@ -2564,8 +3283,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>29401</v>
+      <c r="A25" s="2" t="s">
+        <v>513</v>
       </c>
       <c r="B25" t="s">
         <v>224</v>
@@ -2590,8 +3309,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>29402</v>
+      <c r="A26" s="2" t="s">
+        <v>514</v>
       </c>
       <c r="B26" t="s">
         <v>225</v>
@@ -2616,8 +3335,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>29405</v>
+      <c r="A27" s="2" t="s">
+        <v>515</v>
       </c>
       <c r="B27" t="s">
         <v>226</v>
@@ -2642,8 +3361,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>29409</v>
+      <c r="A28" s="2" t="s">
+        <v>516</v>
       </c>
       <c r="B28" t="s">
         <v>227</v>
@@ -2668,8 +3387,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>29092</v>
+      <c r="A29" s="2" t="s">
+        <v>517</v>
       </c>
       <c r="B29" t="s">
         <v>228</v>
@@ -2694,8 +3413,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>29304</v>
+      <c r="A30" s="2" t="s">
+        <v>518</v>
       </c>
       <c r="B30" t="s">
         <v>229</v>
@@ -2720,8 +3439,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>29095</v>
+      <c r="A31" s="2" t="s">
+        <v>519</v>
       </c>
       <c r="B31" t="s">
         <v>230</v>
@@ -2746,8 +3465,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>29096</v>
+      <c r="A32" s="2" t="s">
+        <v>520</v>
       </c>
       <c r="B32" t="s">
         <v>231</v>
@@ -2772,8 +3491,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>29097</v>
+      <c r="A33" s="2" t="s">
+        <v>521</v>
       </c>
       <c r="B33" t="s">
         <v>232</v>
@@ -2798,8 +3517,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>29098</v>
+      <c r="A34" s="2" t="s">
+        <v>522</v>
       </c>
       <c r="B34" t="s">
         <v>233</v>
@@ -2824,8 +3543,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>2262</v>
+      <c r="A35" s="2" t="s">
+        <v>523</v>
       </c>
       <c r="B35" t="s">
         <v>234</v>
@@ -2850,8 +3569,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>2263</v>
+      <c r="A36" s="2" t="s">
+        <v>524</v>
       </c>
       <c r="B36" t="s">
         <v>235</v>
@@ -2876,8 +3595,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>2200</v>
+      <c r="A37" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="B37" t="s">
         <v>237</v>
@@ -2902,8 +3621,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>2202</v>
+      <c r="A38" s="2" t="s">
+        <v>526</v>
       </c>
       <c r="B38" t="s">
         <v>236</v>
@@ -2928,8 +3647,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>2201</v>
+      <c r="A39" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="B39" t="s">
         <v>238</v>
@@ -2954,8 +3673,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>2206</v>
+      <c r="A40" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="B40" t="s">
         <v>239</v>
@@ -2980,8 +3699,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>2255</v>
+      <c r="A41" s="2" t="s">
+        <v>529</v>
       </c>
       <c r="B41" t="s">
         <v>240</v>
@@ -3006,8 +3725,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>2256</v>
+      <c r="A42" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="B42" t="s">
         <v>241</v>
@@ -3032,8 +3751,8 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>2257</v>
+      <c r="A43" s="2" t="s">
+        <v>531</v>
       </c>
       <c r="B43" t="s">
         <v>242</v>
@@ -3058,8 +3777,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>2258</v>
+      <c r="A44" s="2" t="s">
+        <v>532</v>
       </c>
       <c r="B44" t="s">
         <v>243</v>
@@ -3084,8 +3803,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>2261</v>
+      <c r="A45" s="2" t="s">
+        <v>533</v>
       </c>
       <c r="B45" t="s">
         <v>244</v>
@@ -3110,8 +3829,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>2265</v>
+      <c r="A46" s="2" t="s">
+        <v>534</v>
       </c>
       <c r="B46" t="s">
         <v>245</v>
@@ -3136,8 +3855,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>2286</v>
+      <c r="A47" s="2" t="s">
+        <v>535</v>
       </c>
       <c r="B47" t="s">
         <v>246</v>
@@ -3162,8 +3881,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>2287</v>
+      <c r="A48" s="2" t="s">
+        <v>536</v>
       </c>
       <c r="B48" t="s">
         <v>247</v>
@@ -3188,8 +3907,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>2288</v>
+      <c r="A49" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="B49" t="s">
         <v>248</v>
@@ -3214,8 +3933,8 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>2289</v>
+      <c r="A50" s="2" t="s">
+        <v>538</v>
       </c>
       <c r="B50" t="s">
         <v>249</v>
@@ -3240,8 +3959,8 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>2296</v>
+      <c r="A51" s="2" t="s">
+        <v>539</v>
       </c>
       <c r="B51" t="s">
         <v>250</v>
@@ -3266,8 +3985,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>2295</v>
+      <c r="A52" s="2" t="s">
+        <v>540</v>
       </c>
       <c r="B52" t="s">
         <v>251</v>
@@ -3292,8 +4011,8 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>2316</v>
+      <c r="A53" s="2" t="s">
+        <v>541</v>
       </c>
       <c r="B53" t="s">
         <v>252</v>
@@ -3318,8 +4037,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>2315</v>
+      <c r="A54" s="2" t="s">
+        <v>542</v>
       </c>
       <c r="B54" t="s">
         <v>253</v>
@@ -3344,8 +4063,8 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>2312</v>
+      <c r="A55" s="2" t="s">
+        <v>543</v>
       </c>
       <c r="B55" t="s">
         <v>254</v>
@@ -3370,8 +4089,8 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>81015</v>
+      <c r="A56" s="2" t="s">
+        <v>544</v>
       </c>
       <c r="B56" t="s">
         <v>255</v>
@@ -3396,8 +4115,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>81016</v>
+      <c r="A57" s="2" t="s">
+        <v>545</v>
       </c>
       <c r="B57" t="s">
         <v>257</v>
@@ -3422,8 +4141,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>81017</v>
+      <c r="A58" s="2" t="s">
+        <v>546</v>
       </c>
       <c r="B58" t="s">
         <v>258</v>
@@ -3448,8 +4167,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>81018</v>
+      <c r="A59" s="2" t="s">
+        <v>547</v>
       </c>
       <c r="B59" t="s">
         <v>259</v>
@@ -3474,8 +4193,8 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>81019</v>
+      <c r="A60" s="2" t="s">
+        <v>548</v>
       </c>
       <c r="B60" t="s">
         <v>260</v>
@@ -3500,8 +4219,8 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>81022</v>
+      <c r="A61" s="2" t="s">
+        <v>549</v>
       </c>
       <c r="B61" t="s">
         <v>261</v>
@@ -3526,8 +4245,8 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>81020</v>
+      <c r="A62" s="2" t="s">
+        <v>550</v>
       </c>
       <c r="B62" t="s">
         <v>263</v>
@@ -3546,8 +4265,8 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>81921</v>
+      <c r="A63" s="2" t="s">
+        <v>551</v>
       </c>
       <c r="B63" t="s">
         <v>266</v>
@@ -3572,8 +4291,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>81034</v>
+      <c r="A64" s="2" t="s">
+        <v>552</v>
       </c>
       <c r="B64" t="s">
         <v>265</v>
@@ -3598,8 +4317,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>81976</v>
+      <c r="A65" s="2" t="s">
+        <v>553</v>
       </c>
       <c r="B65" t="s">
         <v>267</v>
@@ -3624,8 +4343,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>81978</v>
+      <c r="A66" s="2" t="s">
+        <v>554</v>
       </c>
       <c r="B66" t="s">
         <v>269</v>
@@ -3650,8 +4369,8 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>81024</v>
+      <c r="A67" s="2" t="s">
+        <v>555</v>
       </c>
       <c r="B67" t="s">
         <v>271</v>
@@ -3676,8 +4395,8 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>76090</v>
+      <c r="A68" s="2" t="s">
+        <v>556</v>
       </c>
       <c r="B68" t="s">
         <v>272</v>
@@ -3702,8 +4421,8 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>76070</v>
+      <c r="A69" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="B69" t="s">
         <v>273</v>
@@ -3728,8 +4447,8 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>76086</v>
+      <c r="A70" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="B70" t="s">
         <v>274</v>
@@ -3754,8 +4473,8 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>76087</v>
+      <c r="A71" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="B71" t="s">
         <v>275</v>
@@ -3780,8 +4499,8 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>76083</v>
+      <c r="A72" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="B72" t="s">
         <v>276</v>
@@ -3806,8 +4525,8 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>76084</v>
+      <c r="A73" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="B73" t="s">
         <v>277</v>
@@ -3832,8 +4551,8 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>76085</v>
+      <c r="A74" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="B74" t="s">
         <v>278</v>
@@ -3858,8 +4577,8 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>76081</v>
+      <c r="A75" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="B75" t="s">
         <v>279</v>
@@ -3884,8 +4603,8 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>81500</v>
+      <c r="A76" s="2" t="s">
+        <v>564</v>
       </c>
       <c r="B76" t="s">
         <v>281</v>
@@ -3910,8 +4629,8 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>76082</v>
+      <c r="A77" s="2" t="s">
+        <v>565</v>
       </c>
       <c r="B77" t="s">
         <v>282</v>
@@ -3936,8 +4655,8 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>13059</v>
+      <c r="A78" s="2" t="s">
+        <v>566</v>
       </c>
       <c r="B78" t="s">
         <v>283</v>
@@ -3962,8 +4681,8 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>13061</v>
+      <c r="A79" s="2" t="s">
+        <v>567</v>
       </c>
       <c r="B79" t="s">
         <v>284</v>
@@ -3988,8 +4707,8 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>13060</v>
+      <c r="A80" s="2" t="s">
+        <v>568</v>
       </c>
       <c r="B80" t="s">
         <v>285</v>
@@ -4014,8 +4733,8 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>13062</v>
+      <c r="A81" s="2" t="s">
+        <v>569</v>
       </c>
       <c r="B81" t="s">
         <v>286</v>
@@ -4040,8 +4759,8 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>81925</v>
+      <c r="A82" s="2" t="s">
+        <v>570</v>
       </c>
       <c r="B82" t="s">
         <v>287</v>
@@ -4066,8 +4785,8 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>81926</v>
+      <c r="A83" s="2" t="s">
+        <v>571</v>
       </c>
       <c r="B83" t="s">
         <v>288</v>
@@ -4092,8 +4811,8 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>81929</v>
+      <c r="A84" s="2" t="s">
+        <v>572</v>
       </c>
       <c r="B84" t="s">
         <v>289</v>
@@ -4118,8 +4837,8 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>81932</v>
+      <c r="A85" s="2" t="s">
+        <v>573</v>
       </c>
       <c r="B85" t="s">
         <v>290</v>
@@ -4144,8 +4863,8 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>81033</v>
+      <c r="A86" s="2" t="s">
+        <v>574</v>
       </c>
       <c r="B86" t="s">
         <v>291</v>
@@ -4170,8 +4889,8 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>81927</v>
+      <c r="A87" s="2" t="s">
+        <v>575</v>
       </c>
       <c r="B87" t="s">
         <v>293</v>
@@ -4196,8 +4915,8 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>81928</v>
+      <c r="A88" s="2" t="s">
+        <v>576</v>
       </c>
       <c r="B88" t="s">
         <v>294</v>
@@ -4222,8 +4941,8 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>2001</v>
+      <c r="A89" s="2" t="s">
+        <v>577</v>
       </c>
       <c r="B89" t="s">
         <v>295</v>
@@ -4248,8 +4967,8 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>2002</v>
+      <c r="A90" s="2" t="s">
+        <v>578</v>
       </c>
       <c r="B90" t="s">
         <v>296</v>
@@ -4274,8 +4993,8 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>2003</v>
+      <c r="A91" s="2" t="s">
+        <v>579</v>
       </c>
       <c r="B91" t="s">
         <v>297</v>
@@ -4300,8 +5019,8 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>2103</v>
+      <c r="A92" s="2" t="s">
+        <v>580</v>
       </c>
       <c r="B92" t="s">
         <v>298</v>
@@ -4326,8 +5045,8 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>2441</v>
+      <c r="A93" s="2" t="s">
+        <v>581</v>
       </c>
       <c r="B93" t="s">
         <v>299</v>
@@ -4352,8 +5071,8 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <v>2202</v>
+      <c r="A94" s="2" t="s">
+        <v>582</v>
       </c>
       <c r="B94" t="s">
         <v>300</v>
@@ -4378,8 +5097,8 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>2204</v>
+      <c r="A95" s="2" t="s">
+        <v>583</v>
       </c>
       <c r="B95" t="s">
         <v>301</v>
@@ -4404,8 +5123,8 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <v>2305</v>
+      <c r="A96" s="2" t="s">
+        <v>584</v>
       </c>
       <c r="B96" t="s">
         <v>302</v>
@@ -4430,8 +5149,8 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>2306</v>
+      <c r="A97" s="2" t="s">
+        <v>585</v>
       </c>
       <c r="B97" t="s">
         <v>303</v>
@@ -4456,8 +5175,8 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>2416</v>
+      <c r="A98" s="2" t="s">
+        <v>586</v>
       </c>
       <c r="B98" t="s">
         <v>304</v>
@@ -4482,8 +5201,8 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>2415</v>
+      <c r="A99" s="2" t="s">
+        <v>587</v>
       </c>
       <c r="B99" t="s">
         <v>305</v>
@@ -4508,8 +5227,8 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>2409</v>
+      <c r="A100" s="2" t="s">
+        <v>588</v>
       </c>
       <c r="B100" t="s">
         <v>306</v>
@@ -4534,8 +5253,8 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
-        <v>2448</v>
+      <c r="A101" s="2" t="s">
+        <v>589</v>
       </c>
       <c r="B101" t="s">
         <v>307</v>
@@ -4560,8 +5279,8 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
-        <v>2440</v>
+      <c r="A102" s="2" t="s">
+        <v>590</v>
       </c>
       <c r="B102" t="s">
         <v>308</v>
@@ -4586,8 +5305,8 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <v>2404</v>
+      <c r="A103" s="2" t="s">
+        <v>591</v>
       </c>
       <c r="B103" t="s">
         <v>309</v>
@@ -4612,8 +5331,8 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>2408</v>
+      <c r="A104" s="2" t="s">
+        <v>592</v>
       </c>
       <c r="B104" t="s">
         <v>310</v>
@@ -4638,8 +5357,8 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
-        <v>2414</v>
+      <c r="A105" s="2" t="s">
+        <v>593</v>
       </c>
       <c r="B105" t="s">
         <v>311</v>
@@ -4664,8 +5383,8 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <v>2410</v>
+      <c r="A106" s="2" t="s">
+        <v>594</v>
       </c>
       <c r="B106" t="s">
         <v>312</v>
@@ -4690,8 +5409,8 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
-        <v>2411</v>
+      <c r="A107" s="2" t="s">
+        <v>595</v>
       </c>
       <c r="B107" t="s">
         <v>313</v>
@@ -4716,8 +5435,8 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
-        <v>2413</v>
+      <c r="A108" s="2" t="s">
+        <v>596</v>
       </c>
       <c r="B108" t="s">
         <v>314</v>
@@ -4742,8 +5461,8 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
-        <v>1012</v>
+      <c r="A109" s="2" t="s">
+        <v>597</v>
       </c>
       <c r="B109" t="s">
         <v>315</v>
@@ -4768,8 +5487,8 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
-        <v>1204</v>
+      <c r="A110" s="2" t="s">
+        <v>598</v>
       </c>
       <c r="B110" t="s">
         <v>316</v>
@@ -4794,8 +5513,8 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
-        <v>1207</v>
+      <c r="A111" s="2" t="s">
+        <v>599</v>
       </c>
       <c r="B111" t="s">
         <v>317</v>
@@ -4820,8 +5539,8 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
-        <v>1312</v>
+      <c r="A112" s="2" t="s">
+        <v>600</v>
       </c>
       <c r="B112" t="s">
         <v>318</v>
@@ -4846,8 +5565,8 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
-        <v>1404</v>
+      <c r="A113" s="2" t="s">
+        <v>601</v>
       </c>
       <c r="B113" t="s">
         <v>319</v>
@@ -4872,8 +5591,8 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
-        <v>1412</v>
+      <c r="A114" s="2" t="s">
+        <v>602</v>
       </c>
       <c r="B114" t="s">
         <v>320</v>
@@ -4898,8 +5617,8 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
-        <v>2512</v>
+      <c r="A115" s="2" t="s">
+        <v>603</v>
       </c>
       <c r="B115" t="s">
         <v>321</v>
@@ -4924,8 +5643,8 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
-        <v>3304</v>
+      <c r="A116" s="2" t="s">
+        <v>604</v>
       </c>
       <c r="B116" t="s">
         <v>322</v>
@@ -4950,8 +5669,8 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
-        <v>3804</v>
+      <c r="A117" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>15</v>
@@ -4976,8 +5695,8 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
-        <v>3404</v>
+      <c r="A118" s="2" t="s">
+        <v>606</v>
       </c>
       <c r="B118" t="s">
         <v>323</v>
@@ -5002,8 +5721,8 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
-        <v>3504</v>
+      <c r="A119" s="2" t="s">
+        <v>607</v>
       </c>
       <c r="B119" t="s">
         <v>324</v>
@@ -5028,8 +5747,8 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
-        <v>3904</v>
+      <c r="A120" s="2" t="s">
+        <v>608</v>
       </c>
       <c r="B120" t="s">
         <v>325</v>
@@ -5054,8 +5773,8 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="3">
-        <v>3704</v>
+      <c r="A121" s="3" t="s">
+        <v>609</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>16</v>
@@ -5080,8 +5799,8 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
-        <v>8109</v>
+      <c r="A122" s="2" t="s">
+        <v>610</v>
       </c>
       <c r="B122" t="s">
         <v>326</v>
@@ -5106,8 +5825,8 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
-        <v>6838</v>
+      <c r="A123" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="B123" t="s">
         <v>327</v>
@@ -5132,8 +5851,8 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
-        <v>6839</v>
+      <c r="A124" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="B124" t="s">
         <v>328</v>
@@ -5158,8 +5877,8 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
-        <v>8102</v>
+      <c r="A125" s="2" t="s">
+        <v>613</v>
       </c>
       <c r="B125" t="s">
         <v>329</v>
@@ -5184,8 +5903,8 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
-        <v>8103</v>
+      <c r="A126" s="2" t="s">
+        <v>614</v>
       </c>
       <c r="B126" t="s">
         <v>330</v>
@@ -5210,8 +5929,8 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
-        <v>8104</v>
+      <c r="A127" s="2" t="s">
+        <v>615</v>
       </c>
       <c r="B127" t="s">
         <v>331</v>
@@ -5236,8 +5955,8 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
-        <v>8105</v>
+      <c r="A128" s="2" t="s">
+        <v>616</v>
       </c>
       <c r="B128" t="s">
         <v>332</v>
@@ -5262,8 +5981,8 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
-        <v>8107</v>
+      <c r="A129" s="2" t="s">
+        <v>617</v>
       </c>
       <c r="B129" t="s">
         <v>333</v>
@@ -5285,8 +6004,8 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
-        <v>8108</v>
+      <c r="A130" s="2" t="s">
+        <v>618</v>
       </c>
       <c r="B130" t="s">
         <v>334</v>
@@ -5311,8 +6030,8 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
-        <v>8111</v>
+      <c r="A131" s="2" t="s">
+        <v>619</v>
       </c>
       <c r="B131" t="s">
         <v>335</v>
@@ -5337,8 +6056,8 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
-        <v>8113</v>
+      <c r="A132" s="2" t="s">
+        <v>620</v>
       </c>
       <c r="B132" t="s">
         <v>336</v>
@@ -5363,8 +6082,8 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
-        <v>8114</v>
+      <c r="A133" s="2" t="s">
+        <v>621</v>
       </c>
       <c r="B133" t="s">
         <v>337</v>
@@ -5389,8 +6108,8 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
-        <v>8100</v>
+      <c r="A134" s="2" t="s">
+        <v>622</v>
       </c>
       <c r="B134" t="s">
         <v>338</v>
@@ -5412,8 +6131,8 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
-        <v>2540</v>
+      <c r="A135" s="2" t="s">
+        <v>623</v>
       </c>
       <c r="B135" t="s">
         <v>339</v>
@@ -5438,8 +6157,8 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
-        <v>2621</v>
+      <c r="A136" s="2" t="s">
+        <v>624</v>
       </c>
       <c r="B136" t="s">
         <v>340</v>
@@ -5464,8 +6183,8 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
-        <v>2620</v>
+      <c r="A137" s="2" t="s">
+        <v>625</v>
       </c>
       <c r="B137" t="s">
         <v>341</v>
@@ -5490,8 +6209,8 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
-        <v>2555</v>
+      <c r="A138" s="2" t="s">
+        <v>626</v>
       </c>
       <c r="B138" t="s">
         <v>342</v>
@@ -5516,8 +6235,8 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="2">
-        <v>2556</v>
+      <c r="A139" s="2" t="s">
+        <v>627</v>
       </c>
       <c r="B139" t="s">
         <v>343</v>
@@ -5542,8 +6261,8 @@
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="2">
-        <v>2557</v>
+      <c r="A140" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="B140" t="s">
         <v>344</v>
@@ -5568,8 +6287,8 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="3">
-        <v>2558</v>
+      <c r="A141" s="3" t="s">
+        <v>629</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>482</v>
@@ -5594,8 +6313,8 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
-        <v>8635</v>
+      <c r="A142" s="2" t="s">
+        <v>630</v>
       </c>
       <c r="B142" t="s">
         <v>345</v>
@@ -5620,8 +6339,8 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
-        <v>8636</v>
+      <c r="A143" s="2" t="s">
+        <v>631</v>
       </c>
       <c r="B143" t="s">
         <v>346</v>
@@ -5646,8 +6365,8 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="2">
-        <v>8637</v>
+      <c r="A144" s="2" t="s">
+        <v>632</v>
       </c>
       <c r="B144" t="s">
         <v>347</v>
@@ -5672,8 +6391,8 @@
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="2">
-        <v>8638</v>
+      <c r="A145" s="2" t="s">
+        <v>633</v>
       </c>
       <c r="B145" t="s">
         <v>348</v>
@@ -5698,8 +6417,8 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="2">
-        <v>807</v>
+      <c r="A146" s="2" t="s">
+        <v>634</v>
       </c>
       <c r="B146" t="s">
         <v>349</v>
@@ -5724,8 +6443,8 @@
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="2">
-        <v>808</v>
+      <c r="A147" s="2" t="s">
+        <v>635</v>
       </c>
       <c r="B147" t="s">
         <v>350</v>
@@ -5750,8 +6469,8 @@
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="2">
-        <v>809</v>
+      <c r="A148" s="2" t="s">
+        <v>636</v>
       </c>
       <c r="B148" t="s">
         <v>351</v>
@@ -5776,8 +6495,8 @@
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="2">
-        <v>810</v>
+      <c r="A149" s="2" t="s">
+        <v>637</v>
       </c>
       <c r="B149" t="s">
         <v>352</v>
@@ -5802,8 +6521,8 @@
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
-        <v>811</v>
+      <c r="A150" s="2" t="s">
+        <v>638</v>
       </c>
       <c r="B150" t="s">
         <v>353</v>
@@ -5828,8 +6547,8 @@
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="2">
-        <v>826</v>
+      <c r="A151" s="2" t="s">
+        <v>639</v>
       </c>
       <c r="B151" t="s">
         <v>354</v>
@@ -5854,8 +6573,8 @@
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="2">
-        <v>813</v>
+      <c r="A152" s="2" t="s">
+        <v>640</v>
       </c>
       <c r="B152" t="s">
         <v>355</v>
@@ -5880,8 +6599,8 @@
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="2">
-        <v>814</v>
+      <c r="A153" s="2" t="s">
+        <v>641</v>
       </c>
       <c r="B153" t="s">
         <v>356</v>
@@ -5906,8 +6625,8 @@
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="2">
-        <v>816</v>
+      <c r="A154" s="2" t="s">
+        <v>642</v>
       </c>
       <c r="B154" t="s">
         <v>357</v>
@@ -5932,8 +6651,8 @@
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="2">
-        <v>817</v>
+      <c r="A155" s="2" t="s">
+        <v>643</v>
       </c>
       <c r="B155" t="s">
         <v>358</v>
@@ -5958,8 +6677,8 @@
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
-        <v>821</v>
+      <c r="A156" s="2" t="s">
+        <v>644</v>
       </c>
       <c r="B156" t="s">
         <v>359</v>
@@ -5984,8 +6703,8 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="2">
-        <v>822</v>
+      <c r="A157" s="2" t="s">
+        <v>645</v>
       </c>
       <c r="B157" t="s">
         <v>360</v>
@@ -6010,8 +6729,8 @@
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
-        <v>823</v>
+      <c r="A158" s="2" t="s">
+        <v>646</v>
       </c>
       <c r="B158" t="s">
         <v>361</v>
@@ -6036,8 +6755,8 @@
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="2">
-        <v>824</v>
+      <c r="A159" s="2" t="s">
+        <v>647</v>
       </c>
       <c r="B159" t="s">
         <v>362</v>
@@ -6062,8 +6781,8 @@
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="2">
-        <v>907</v>
+      <c r="A160" s="2" t="s">
+        <v>648</v>
       </c>
       <c r="B160" t="s">
         <v>363</v>
@@ -6088,8 +6807,8 @@
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="2">
-        <v>909</v>
+      <c r="A161" s="2" t="s">
+        <v>649</v>
       </c>
       <c r="B161" t="s">
         <v>364</v>
@@ -6114,8 +6833,8 @@
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="2">
-        <v>911</v>
+      <c r="A162" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="B162" t="s">
         <v>365</v>
@@ -6140,8 +6859,8 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="2">
-        <v>926</v>
+      <c r="A163" s="2" t="s">
+        <v>651</v>
       </c>
       <c r="B163" t="s">
         <v>366</v>
@@ -6166,8 +6885,8 @@
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="2">
-        <v>916</v>
+      <c r="A164" s="2" t="s">
+        <v>652</v>
       </c>
       <c r="B164" t="s">
         <v>367</v>
@@ -6192,8 +6911,8 @@
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="2">
-        <v>921</v>
+      <c r="A165" s="2" t="s">
+        <v>653</v>
       </c>
       <c r="B165" t="s">
         <v>368</v>
@@ -6218,8 +6937,8 @@
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="2">
-        <v>923</v>
+      <c r="A166" s="2" t="s">
+        <v>654</v>
       </c>
       <c r="B166" t="s">
         <v>369</v>
@@ -6244,8 +6963,8 @@
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="2">
-        <v>924</v>
+      <c r="A167" s="2" t="s">
+        <v>655</v>
       </c>
       <c r="B167" t="s">
         <v>370</v>
@@ -6270,8 +6989,8 @@
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="2">
-        <v>57974</v>
+      <c r="A168" s="2" t="s">
+        <v>656</v>
       </c>
       <c r="B168" t="s">
         <v>371</v>
@@ -6296,8 +7015,8 @@
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="2">
-        <v>57975</v>
+      <c r="A169" s="2" t="s">
+        <v>657</v>
       </c>
       <c r="B169" t="s">
         <v>373</v>
@@ -6322,8 +7041,8 @@
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
-        <v>57976</v>
+      <c r="A170" s="2" t="s">
+        <v>658</v>
       </c>
       <c r="B170" t="s">
         <v>375</v>
@@ -6348,8 +7067,8 @@
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
-        <v>57977</v>
+      <c r="A171" s="2" t="s">
+        <v>659</v>
       </c>
       <c r="B171" t="s">
         <v>393</v>
@@ -6374,8 +7093,8 @@
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
-        <v>57978</v>
+      <c r="A172" s="2" t="s">
+        <v>660</v>
       </c>
       <c r="B172" t="s">
         <v>394</v>
@@ -6400,8 +7119,8 @@
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
-        <v>57979</v>
+      <c r="A173" s="2" t="s">
+        <v>661</v>
       </c>
       <c r="B173" t="s">
         <v>395</v>
@@ -6426,8 +7145,8 @@
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="2">
-        <v>57980</v>
+      <c r="A174" s="2" t="s">
+        <v>662</v>
       </c>
       <c r="B174" t="s">
         <v>396</v>
@@ -6452,8 +7171,8 @@
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="2">
-        <v>57981</v>
+      <c r="A175" s="2" t="s">
+        <v>663</v>
       </c>
       <c r="B175" t="s">
         <v>397</v>
@@ -6478,8 +7197,8 @@
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="2">
-        <v>57982</v>
+      <c r="A176" s="2" t="s">
+        <v>664</v>
       </c>
       <c r="B176" t="s">
         <v>398</v>
@@ -6504,8 +7223,8 @@
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="2">
-        <v>57983</v>
+      <c r="A177" s="2" t="s">
+        <v>665</v>
       </c>
       <c r="B177" t="s">
         <v>399</v>
@@ -6530,8 +7249,8 @@
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="2">
-        <v>57984</v>
+      <c r="A178" s="2" t="s">
+        <v>666</v>
       </c>
       <c r="B178" t="s">
         <v>400</v>
@@ -6556,8 +7275,8 @@
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="2">
-        <v>57985</v>
+      <c r="A179" s="2" t="s">
+        <v>667</v>
       </c>
       <c r="B179" t="s">
         <v>401</v>
@@ -6582,8 +7301,8 @@
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="2">
-        <v>57986</v>
+      <c r="A180" s="2" t="s">
+        <v>668</v>
       </c>
       <c r="B180" t="s">
         <v>402</v>
@@ -6608,8 +7327,8 @@
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="2">
-        <v>57987</v>
+      <c r="A181" s="2" t="s">
+        <v>669</v>
       </c>
       <c r="B181" t="s">
         <v>403</v>
@@ -6634,8 +7353,8 @@
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="2">
-        <v>57988</v>
+      <c r="A182" s="2" t="s">
+        <v>670</v>
       </c>
       <c r="B182" t="s">
         <v>404</v>
@@ -6660,8 +7379,8 @@
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="2">
-        <v>57989</v>
+      <c r="A183" s="2" t="s">
+        <v>671</v>
       </c>
       <c r="B183" t="s">
         <v>405</v>
@@ -6686,8 +7405,8 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="2">
-        <v>57990</v>
+      <c r="A184" s="2" t="s">
+        <v>672</v>
       </c>
       <c r="B184" t="s">
         <v>406</v>
@@ -6712,8 +7431,8 @@
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="2">
-        <v>57991</v>
+      <c r="A185" s="2" t="s">
+        <v>673</v>
       </c>
       <c r="B185" t="s">
         <v>407</v>
@@ -6738,8 +7457,8 @@
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="2">
-        <v>58000</v>
+      <c r="A186" s="2" t="s">
+        <v>674</v>
       </c>
       <c r="B186" t="s">
         <v>408</v>
@@ -6764,8 +7483,8 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="2">
-        <v>58001</v>
+      <c r="A187" s="2" t="s">
+        <v>675</v>
       </c>
       <c r="B187" t="s">
         <v>409</v>
@@ -6790,8 +7509,8 @@
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="2">
-        <v>58002</v>
+      <c r="A188" s="2" t="s">
+        <v>676</v>
       </c>
       <c r="B188" t="s">
         <v>410</v>
@@ -6816,8 +7535,8 @@
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="2">
-        <v>58003</v>
+      <c r="A189" s="2" t="s">
+        <v>677</v>
       </c>
       <c r="B189" t="s">
         <v>411</v>
@@ -6842,8 +7561,8 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="2">
-        <v>58004</v>
+      <c r="A190" s="2" t="s">
+        <v>678</v>
       </c>
       <c r="B190" t="s">
         <v>412</v>
@@ -6868,8 +7587,8 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="2">
-        <v>58005</v>
+      <c r="A191" s="2" t="s">
+        <v>679</v>
       </c>
       <c r="B191" t="s">
         <v>413</v>
@@ -6894,8 +7613,8 @@
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="2">
-        <v>58006</v>
+      <c r="A192" s="2" t="s">
+        <v>680</v>
       </c>
       <c r="B192" t="s">
         <v>414</v>
@@ -6920,8 +7639,8 @@
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="2">
-        <v>58007</v>
+      <c r="A193" s="2" t="s">
+        <v>681</v>
       </c>
       <c r="B193" t="s">
         <v>415</v>
@@ -6946,8 +7665,8 @@
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="2">
-        <v>58008</v>
+      <c r="A194" s="2" t="s">
+        <v>682</v>
       </c>
       <c r="B194" t="s">
         <v>416</v>
@@ -6972,8 +7691,8 @@
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="2">
-        <v>81872</v>
+      <c r="A195" s="2" t="s">
+        <v>683</v>
       </c>
       <c r="B195" t="s">
         <v>417</v>
@@ -6998,8 +7717,8 @@
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="2">
-        <v>81873</v>
+      <c r="A196" s="2" t="s">
+        <v>684</v>
       </c>
       <c r="B196" t="s">
         <v>418</v>
@@ -7024,8 +7743,8 @@
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="2">
-        <v>81874</v>
+      <c r="A197" s="2" t="s">
+        <v>685</v>
       </c>
       <c r="B197" t="s">
         <v>419</v>
@@ -7050,8 +7769,8 @@
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="2">
-        <v>81875</v>
+      <c r="A198" s="2" t="s">
+        <v>686</v>
       </c>
       <c r="B198" t="s">
         <v>420</v>
@@ -7076,8 +7795,8 @@
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="2">
-        <v>81876</v>
+      <c r="A199" s="2" t="s">
+        <v>687</v>
       </c>
       <c r="B199" t="s">
         <v>421</v>
@@ -7102,8 +7821,8 @@
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="2">
-        <v>81877</v>
+      <c r="A200" s="2" t="s">
+        <v>688</v>
       </c>
       <c r="B200" t="s">
         <v>422</v>
@@ -7128,8 +7847,8 @@
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="2">
-        <v>81916</v>
+      <c r="A201" s="2" t="s">
+        <v>689</v>
       </c>
       <c r="B201" t="s">
         <v>423</v>
@@ -7148,8 +7867,8 @@
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="2">
-        <v>8351</v>
+      <c r="A202" s="2" t="s">
+        <v>690</v>
       </c>
       <c r="B202" t="s">
         <v>424</v>
@@ -7174,8 +7893,8 @@
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="2">
-        <v>8352</v>
+      <c r="A203" s="2" t="s">
+        <v>691</v>
       </c>
       <c r="B203" t="s">
         <v>425</v>
@@ -7200,8 +7919,8 @@
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="2">
-        <v>8353</v>
+      <c r="A204" s="2" t="s">
+        <v>692</v>
       </c>
       <c r="B204" t="s">
         <v>426</v>
@@ -7226,8 +7945,8 @@
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="2">
-        <v>1904</v>
+      <c r="A205" s="2" t="s">
+        <v>693</v>
       </c>
       <c r="B205" t="s">
         <v>427</v>
@@ -7252,8 +7971,8 @@
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="2">
-        <v>1901</v>
+      <c r="A206" s="2" t="s">
+        <v>694</v>
       </c>
       <c r="B206" t="s">
         <v>429</v>
@@ -7278,8 +7997,8 @@
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="2">
-        <v>1900</v>
+      <c r="A207" s="2" t="s">
+        <v>695</v>
       </c>
       <c r="B207" t="s">
         <v>431</v>
@@ -7304,8 +8023,8 @@
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="2">
-        <v>1899</v>
+      <c r="A208" s="2" t="s">
+        <v>696</v>
       </c>
       <c r="B208" t="s">
         <v>433</v>
@@ -7330,8 +8049,8 @@
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="2">
-        <v>1902</v>
+      <c r="A209" s="2" t="s">
+        <v>697</v>
       </c>
       <c r="B209" t="s">
         <v>435</v>
@@ -7356,8 +8075,8 @@
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="2">
-        <v>1903</v>
+      <c r="A210" s="2" t="s">
+        <v>698</v>
       </c>
       <c r="B210" t="s">
         <v>437</v>
@@ -7382,8 +8101,8 @@
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="2">
-        <v>1905</v>
+      <c r="A211" s="2" t="s">
+        <v>699</v>
       </c>
       <c r="B211" t="s">
         <v>439</v>
@@ -7405,8 +8124,8 @@
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" s="2">
-        <v>8390</v>
+      <c r="A212" s="2" t="s">
+        <v>700</v>
       </c>
       <c r="B212" t="s">
         <v>441</v>
@@ -7431,8 +8150,8 @@
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" s="2">
-        <v>8392</v>
+      <c r="A213" s="2" t="s">
+        <v>701</v>
       </c>
       <c r="B213" t="s">
         <v>442</v>
@@ -7457,8 +8176,8 @@
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="2">
-        <v>8393</v>
+      <c r="A214" s="2" t="s">
+        <v>702</v>
       </c>
       <c r="B214" t="s">
         <v>443</v>
@@ -7483,8 +8202,8 @@
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" s="2">
-        <v>8394</v>
+      <c r="A215" s="2" t="s">
+        <v>703</v>
       </c>
       <c r="B215" t="s">
         <v>444</v>
@@ -7509,8 +8228,8 @@
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="2">
-        <v>8380</v>
+      <c r="A216" s="2" t="s">
+        <v>704</v>
       </c>
       <c r="B216" t="s">
         <v>446</v>
@@ -7535,8 +8254,8 @@
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="2">
-        <v>8384</v>
+      <c r="A217" s="2" t="s">
+        <v>705</v>
       </c>
       <c r="B217" t="s">
         <v>445</v>
@@ -7561,8 +8280,8 @@
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="2">
-        <v>8385</v>
+      <c r="A218" s="2" t="s">
+        <v>706</v>
       </c>
       <c r="B218" t="s">
         <v>446</v>
@@ -7587,8 +8306,8 @@
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="2">
-        <v>8389</v>
+      <c r="A219" s="2" t="s">
+        <v>707</v>
       </c>
       <c r="B219" t="s">
         <v>447</v>
@@ -7613,8 +8332,8 @@
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" s="2">
-        <v>81917</v>
+      <c r="A220" s="2" t="s">
+        <v>708</v>
       </c>
       <c r="B220" t="s">
         <v>197</v>
@@ -7639,8 +8358,8 @@
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="2">
-        <v>81918</v>
+      <c r="A221" s="2" t="s">
+        <v>709</v>
       </c>
       <c r="B221" t="s">
         <v>199</v>
@@ -7665,8 +8384,8 @@
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="2">
-        <v>81919</v>
+      <c r="A222" s="2" t="s">
+        <v>710</v>
       </c>
       <c r="B222" t="s">
         <v>448</v>
@@ -7691,8 +8410,8 @@
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="2">
-        <v>81920</v>
+      <c r="A223" s="2" t="s">
+        <v>711</v>
       </c>
       <c r="B223" t="s">
         <v>450</v>
@@ -7717,8 +8436,8 @@
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="2">
-        <v>81861</v>
+      <c r="A224" s="2" t="s">
+        <v>712</v>
       </c>
       <c r="B224" t="s">
         <v>452</v>
@@ -7743,8 +8462,8 @@
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="2">
-        <v>81862</v>
+      <c r="A225" s="2" t="s">
+        <v>713</v>
       </c>
       <c r="B225" t="s">
         <v>453</v>
@@ -7769,8 +8488,8 @@
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="2">
-        <v>81863</v>
+      <c r="A226" s="2" t="s">
+        <v>714</v>
       </c>
       <c r="B226" t="s">
         <v>454</v>
@@ -7795,8 +8514,8 @@
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="2">
-        <v>81864</v>
+      <c r="A227" s="2" t="s">
+        <v>715</v>
       </c>
       <c r="B227" t="s">
         <v>455</v>
@@ -7821,8 +8540,8 @@
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" s="2">
-        <v>24683</v>
+      <c r="A228" s="2" t="s">
+        <v>716</v>
       </c>
       <c r="B228" t="s">
         <v>456</v>
@@ -7847,8 +8566,8 @@
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="2">
-        <v>24693</v>
+      <c r="A229" s="2" t="s">
+        <v>717</v>
       </c>
       <c r="B229" t="s">
         <v>457</v>
@@ -7873,8 +8592,8 @@
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" s="2">
-        <v>411</v>
+      <c r="A230" s="2" t="s">
+        <v>718</v>
       </c>
       <c r="B230" t="s">
         <v>458</v>
@@ -7899,8 +8618,8 @@
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="2">
-        <v>412</v>
+      <c r="A231" s="2" t="s">
+        <v>719</v>
       </c>
       <c r="B231" t="s">
         <v>460</v>
@@ -7925,8 +8644,8 @@
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="2">
-        <v>413</v>
+      <c r="A232" s="2" t="s">
+        <v>720</v>
       </c>
       <c r="B232" t="s">
         <v>462</v>
@@ -7951,8 +8670,8 @@
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="2">
-        <v>415</v>
+      <c r="A233" s="2" t="s">
+        <v>721</v>
       </c>
       <c r="B233" t="s">
         <v>466</v>
@@ -7977,8 +8696,8 @@
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="2">
-        <v>422</v>
+      <c r="A234" s="2" t="s">
+        <v>722</v>
       </c>
       <c r="B234" t="s">
         <v>468</v>
@@ -8003,8 +8722,8 @@
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="3">
-        <v>423</v>
+      <c r="A235" s="3" t="s">
+        <v>723</v>
       </c>
       <c r="B235" s="4" t="s">
         <v>483</v>
@@ -8029,8 +8748,8 @@
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="2">
-        <v>424</v>
+      <c r="A236" s="2" t="s">
+        <v>724</v>
       </c>
       <c r="B236" t="s">
         <v>470</v>
@@ -8055,8 +8774,8 @@
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237" s="2">
-        <v>430</v>
+      <c r="A237" s="2" t="s">
+        <v>725</v>
       </c>
       <c r="B237" t="s">
         <v>472</v>
@@ -8081,8 +8800,8 @@
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" s="2">
-        <v>433</v>
+      <c r="A238" s="2" t="s">
+        <v>726</v>
       </c>
       <c r="B238" t="s">
         <v>464</v>
@@ -8107,8 +8826,8 @@
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239" s="2">
-        <v>435</v>
+      <c r="A239" s="2" t="s">
+        <v>727</v>
       </c>
       <c r="B239" t="s">
         <v>474</v>
@@ -8133,8 +8852,8 @@
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240" s="2">
-        <v>442</v>
+      <c r="A240" s="2" t="s">
+        <v>728</v>
       </c>
       <c r="B240" t="s">
         <v>476</v>
@@ -8159,8 +8878,8 @@
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="2">
-        <v>456</v>
+      <c r="A241" s="2" t="s">
+        <v>729</v>
       </c>
       <c r="B241" t="s">
         <v>478</v>
@@ -8185,8 +8904,8 @@
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="2">
-        <v>467</v>
+      <c r="A242" s="2" t="s">
+        <v>730</v>
       </c>
       <c r="B242" t="s">
         <v>480</v>

--- a/UBP_Price.xlsx
+++ b/UBP_Price.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyApp\pricecheck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6903C496-E880-430F-AA57-924B8926F47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D6E8AB-7E03-40ED-A420-7624929D2ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{180F7D42-C005-46EA-91A1-F109AC7E0FF3}"/>
+    <workbookView xWindow="3270" yWindow="2745" windowWidth="21600" windowHeight="11235" xr2:uid="{180F7D42-C005-46EA-91A1-F109AC7E0FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="731">
   <si>
-    <t xml:space="preserve">ITEM NO. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUCT DESCRIPTION </t>
-  </si>
-  <si>
     <t>PRODUCT CODE</t>
   </si>
   <si>
@@ -2229,6 +2223,12 @@
   </si>
   <si>
     <t>00467</t>
+  </si>
+  <si>
+    <t>ITEM NO.</t>
+  </si>
+  <si>
+    <t>PRODUCT DESCRIPTION</t>
   </si>
 </sst>
 </file>
@@ -2643,7 +2643,7 @@
   <dimension ref="A1:H242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2660,39 +2660,39 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>487</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -2712,13 +2712,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -2738,13 +2738,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -2764,13 +2764,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -2790,13 +2790,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -2816,13 +2816,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -2842,13 +2842,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -2868,13 +2868,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -2894,13 +2894,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -2920,13 +2920,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -2946,13 +2946,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -2972,13 +2972,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -2998,13 +2998,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -3024,13 +3024,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -3050,13 +3050,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D16">
         <v>6</v>
@@ -3076,13 +3076,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -3102,13 +3102,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D18">
         <v>6</v>
@@ -3128,13 +3128,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -3154,13 +3154,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D20">
         <v>6</v>
@@ -3180,13 +3180,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D21">
         <v>6</v>
@@ -3206,13 +3206,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D22">
         <v>6</v>
@@ -3232,13 +3232,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D23">
         <v>6</v>
@@ -3258,13 +3258,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B24" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D24">
         <v>6</v>
@@ -3284,13 +3284,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D25">
         <v>6</v>
@@ -3310,13 +3310,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D26">
         <v>6</v>
@@ -3336,13 +3336,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B27" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D27">
         <v>6</v>
@@ -3362,13 +3362,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D28">
         <v>6</v>
@@ -3388,13 +3388,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D29">
         <v>6</v>
@@ -3414,13 +3414,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B30" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D30">
         <v>6</v>
@@ -3440,13 +3440,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B31" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D31">
         <v>6</v>
@@ -3466,13 +3466,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D32">
         <v>6</v>
@@ -3492,13 +3492,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B33" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D33">
         <v>6</v>
@@ -3518,13 +3518,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D34">
         <v>6</v>
@@ -3544,13 +3544,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B35" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C35" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D35">
         <v>6</v>
@@ -3570,13 +3570,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B36" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D36">
         <v>6</v>
@@ -3596,13 +3596,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B37" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C37" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D37">
         <v>6</v>
@@ -3622,13 +3622,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B38" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D38">
         <v>6</v>
@@ -3648,13 +3648,13 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B39" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D39">
         <v>6</v>
@@ -3674,13 +3674,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B40" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D40">
         <v>6</v>
@@ -3700,13 +3700,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D41">
         <v>6</v>
@@ -3726,13 +3726,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D42">
         <v>6</v>
@@ -3752,13 +3752,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B43" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D43">
         <v>6</v>
@@ -3778,13 +3778,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B44" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C44" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D44">
         <v>6</v>
@@ -3804,13 +3804,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B45" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C45" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D45">
         <v>6</v>
@@ -3830,13 +3830,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B46" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D46">
         <v>6</v>
@@ -3856,13 +3856,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B47" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D47">
         <v>6</v>
@@ -3882,13 +3882,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B48" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C48" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D48">
         <v>6</v>
@@ -3908,13 +3908,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B49" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C49" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D49">
         <v>6</v>
@@ -3934,13 +3934,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B50" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D50">
         <v>6</v>
@@ -3960,13 +3960,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B51" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C51" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D51">
         <v>6</v>
@@ -3986,13 +3986,13 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B52" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C52" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D52">
         <v>6</v>
@@ -4012,13 +4012,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C53" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D53">
         <v>6</v>
@@ -4038,13 +4038,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B54" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C54" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D54">
         <v>6</v>
@@ -4064,13 +4064,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B55" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C55" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D55">
         <v>6</v>
@@ -4090,13 +4090,13 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B56" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C56" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D56">
         <v>6</v>
@@ -4116,13 +4116,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B57" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C57" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D57">
         <v>6</v>
@@ -4142,13 +4142,13 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B58" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C58" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D58">
         <v>6</v>
@@ -4168,13 +4168,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B59" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C59" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D59">
         <v>6</v>
@@ -4194,13 +4194,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B60" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C60" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D60">
         <v>6</v>
@@ -4220,13 +4220,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B61" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C61" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D61">
         <v>6</v>
@@ -4246,13 +4246,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B62" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -4266,13 +4266,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B63" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C63" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>6</v>
@@ -4292,13 +4292,13 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B64" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C64" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D64">
         <v>6</v>
@@ -4318,13 +4318,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B65" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C65" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D65">
         <v>12</v>
@@ -4344,13 +4344,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B66" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C66" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66">
         <v>6</v>
@@ -4370,13 +4370,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B67" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C67" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D67">
         <v>6</v>
@@ -4396,13 +4396,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B68" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C68" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D68">
         <v>6</v>
@@ -4422,13 +4422,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B69" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C69" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D69">
         <v>4</v>
@@ -4448,13 +4448,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B70" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C70" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -4474,13 +4474,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B71" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C71" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D71">
         <v>4</v>
@@ -4500,13 +4500,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B72" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C72" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D72">
         <v>4</v>
@@ -4526,13 +4526,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B73" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C73" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D73">
         <v>4</v>
@@ -4552,13 +4552,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B74" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C74" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -4578,13 +4578,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B75" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C75" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D75">
         <v>6</v>
@@ -4604,13 +4604,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B76" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C76" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D76">
         <v>4</v>
@@ -4630,13 +4630,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B77" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C77" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D77">
         <v>6</v>
@@ -4656,13 +4656,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B78" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C78" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D78">
         <v>12</v>
@@ -4682,13 +4682,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B79" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D79">
         <v>6</v>
@@ -4708,13 +4708,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B80" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C80" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D80">
         <v>12</v>
@@ -4734,13 +4734,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B81" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C81" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D81">
         <v>6</v>
@@ -4760,13 +4760,13 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B82" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C82" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82">
         <v>24</v>
@@ -4786,13 +4786,13 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B83" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D83">
         <v>24</v>
@@ -4812,13 +4812,13 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B84" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D84">
         <v>24</v>
@@ -4838,13 +4838,13 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B85" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D85">
         <v>24</v>
@@ -4864,13 +4864,13 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B86" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C86" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D86">
         <v>24</v>
@@ -4890,13 +4890,13 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B87" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D87">
         <v>24</v>
@@ -4916,13 +4916,13 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B88" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C88" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D88">
         <v>24</v>
@@ -4942,13 +4942,13 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B89" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C89" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D89">
         <v>144</v>
@@ -4968,13 +4968,13 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B90" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C90" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D90">
         <v>48</v>
@@ -4994,13 +4994,13 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B91" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C91" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D91">
         <v>24</v>
@@ -5020,13 +5020,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B92" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C92" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D92">
         <v>24</v>
@@ -5046,13 +5046,13 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B93" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C93" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D93">
         <v>12</v>
@@ -5072,13 +5072,13 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B94" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C94" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D94">
         <v>48</v>
@@ -5098,13 +5098,13 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B95" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C95" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D95">
         <v>48</v>
@@ -5124,13 +5124,13 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B96" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C96" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D96">
         <v>24</v>
@@ -5150,13 +5150,13 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B97" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C97" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D97">
         <v>12</v>
@@ -5176,13 +5176,13 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B98" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C98" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D98">
         <v>72</v>
@@ -5202,13 +5202,13 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B99" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C99" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D99">
         <v>24</v>
@@ -5228,13 +5228,13 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B100" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C100" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D100">
         <v>12</v>
@@ -5254,13 +5254,13 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B101" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C101" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D101">
         <v>12</v>
@@ -5280,13 +5280,13 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B102" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C102" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D102">
         <v>12</v>
@@ -5306,13 +5306,13 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B103" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C103" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D103">
         <v>24</v>
@@ -5332,13 +5332,13 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B104" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C104" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D104">
         <v>12</v>
@@ -5358,13 +5358,13 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B105" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C105" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D105">
         <v>12</v>
@@ -5384,13 +5384,13 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B106" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C106" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D106">
         <v>12</v>
@@ -5410,13 +5410,13 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B107" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C107" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D107">
         <v>12</v>
@@ -5436,13 +5436,13 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B108" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C108" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D108">
         <v>12</v>
@@ -5462,13 +5462,13 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B109" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C109" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -5488,13 +5488,13 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B110" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C110" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D110">
         <v>12</v>
@@ -5514,13 +5514,13 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B111" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C111" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D111">
         <v>12</v>
@@ -5540,13 +5540,13 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B112" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C112" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D112">
         <v>12</v>
@@ -5566,13 +5566,13 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B113" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C113" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D113">
         <v>12</v>
@@ -5592,13 +5592,13 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B114" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C114" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D114">
         <v>12</v>
@@ -5618,13 +5618,13 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B115" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C115" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D115">
         <v>12</v>
@@ -5644,13 +5644,13 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B116" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C116" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D116">
         <v>12</v>
@@ -5670,13 +5670,13 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D117" s="4">
         <v>12</v>
@@ -5696,13 +5696,13 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B118" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C118" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D118">
         <v>12</v>
@@ -5722,13 +5722,13 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B119" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C119" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D119">
         <v>12</v>
@@ -5748,13 +5748,13 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B120" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C120" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D120">
         <v>12</v>
@@ -5774,13 +5774,13 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D121" s="4">
         <v>12</v>
@@ -5800,13 +5800,13 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B122" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C122" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D122">
         <v>12</v>
@@ -5826,13 +5826,13 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B123" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C123" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D123">
         <v>12</v>
@@ -5852,13 +5852,13 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B124" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C124" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D124">
         <v>12</v>
@@ -5878,13 +5878,13 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B125" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C125" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D125">
         <v>12</v>
@@ -5904,13 +5904,13 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B126" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C126" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D126">
         <v>12</v>
@@ -5930,13 +5930,13 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B127" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C127" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D127">
         <v>12</v>
@@ -5956,13 +5956,13 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B128" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C128" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D128">
         <v>12</v>
@@ -5982,13 +5982,13 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B129" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C129" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E129">
         <v>48</v>
@@ -6005,13 +6005,13 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B130" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C130" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D130">
         <v>12</v>
@@ -6031,13 +6031,13 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B131" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C131" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D131">
         <v>12</v>
@@ -6057,13 +6057,13 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B132" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C132" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D132">
         <v>12</v>
@@ -6083,13 +6083,13 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B133" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C133" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D133">
         <v>12</v>
@@ -6109,13 +6109,13 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B134" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C134" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E134">
         <v>48</v>
@@ -6132,13 +6132,13 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B135" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C135" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D135">
         <v>6</v>
@@ -6158,13 +6158,13 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B136" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C136" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D136">
         <v>12</v>
@@ -6184,13 +6184,13 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B137" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C137" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D137">
         <v>12</v>
@@ -6210,13 +6210,13 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B138" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C138" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D138">
         <v>6</v>
@@ -6236,13 +6236,13 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B139" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C139" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D139">
         <v>6</v>
@@ -6262,13 +6262,13 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B140" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D140">
         <v>6</v>
@@ -6288,13 +6288,13 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D141" s="4">
         <v>6</v>
@@ -6314,13 +6314,13 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B142" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C142" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D142">
         <v>12</v>
@@ -6340,13 +6340,13 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B143" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C143" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D143">
         <v>12</v>
@@ -6366,13 +6366,13 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B144" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C144" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D144">
         <v>6</v>
@@ -6392,13 +6392,13 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B145" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C145" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D145">
         <v>6</v>
@@ -6418,13 +6418,13 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B146" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C146" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D146">
         <v>6</v>
@@ -6444,13 +6444,13 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B147" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C147" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D147">
         <v>6</v>
@@ -6470,13 +6470,13 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B148" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C148" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D148">
         <v>6</v>
@@ -6496,13 +6496,13 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B149" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C149" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D149">
         <v>6</v>
@@ -6522,13 +6522,13 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B150" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C150" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D150">
         <v>6</v>
@@ -6548,13 +6548,13 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B151" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C151" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D151">
         <v>6</v>
@@ -6574,13 +6574,13 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B152" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C152" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D152">
         <v>6</v>
@@ -6600,13 +6600,13 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B153" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C153" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D153">
         <v>6</v>
@@ -6626,13 +6626,13 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B154" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C154" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D154">
         <v>6</v>
@@ -6652,13 +6652,13 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B155" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C155" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D155">
         <v>6</v>
@@ -6678,13 +6678,13 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B156" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C156" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D156">
         <v>6</v>
@@ -6704,13 +6704,13 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B157" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C157" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D157">
         <v>6</v>
@@ -6730,13 +6730,13 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B158" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C158" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D158">
         <v>6</v>
@@ -6756,13 +6756,13 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B159" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C159" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D159">
         <v>6</v>
@@ -6782,13 +6782,13 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B160" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C160" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D160">
         <v>6</v>
@@ -6808,13 +6808,13 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B161" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C161" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D161">
         <v>6</v>
@@ -6834,13 +6834,13 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B162" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C162" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D162">
         <v>6</v>
@@ -6860,13 +6860,13 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B163" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C163" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D163">
         <v>6</v>
@@ -6886,13 +6886,13 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B164" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C164" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D164">
         <v>6</v>
@@ -6912,13 +6912,13 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B165" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C165" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D165">
         <v>6</v>
@@ -6938,13 +6938,13 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B166" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C166" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D166">
         <v>6</v>
@@ -6964,13 +6964,13 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B167" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C167" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D167">
         <v>6</v>
@@ -6990,13 +6990,13 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B168" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C168" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D168">
         <v>24</v>
@@ -7016,13 +7016,13 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B169" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C169" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D169">
         <v>24</v>
@@ -7042,13 +7042,13 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B170" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C170" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D170">
         <v>24</v>
@@ -7068,13 +7068,13 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B171" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C171" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D171">
         <v>24</v>
@@ -7094,13 +7094,13 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B172" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C172" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D172">
         <v>24</v>
@@ -7120,13 +7120,13 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B173" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C173" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D173">
         <v>24</v>
@@ -7146,13 +7146,13 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B174" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C174" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D174">
         <v>24</v>
@@ -7172,13 +7172,13 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B175" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C175" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D175">
         <v>24</v>
@@ -7198,13 +7198,13 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B176" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C176" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D176">
         <v>24</v>
@@ -7224,13 +7224,13 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B177" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C177" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D177">
         <v>24</v>
@@ -7250,13 +7250,13 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B178" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C178" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D178">
         <v>24</v>
@@ -7276,13 +7276,13 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B179" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C179" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D179">
         <v>24</v>
@@ -7302,13 +7302,13 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B180" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C180" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D180">
         <v>24</v>
@@ -7328,13 +7328,13 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B181" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C181" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D181">
         <v>24</v>
@@ -7354,13 +7354,13 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B182" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C182" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D182">
         <v>24</v>
@@ -7380,13 +7380,13 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B183" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C183" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D183">
         <v>24</v>
@@ -7406,13 +7406,13 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B184" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C184" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D184">
         <v>24</v>
@@ -7432,13 +7432,13 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B185" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C185" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D185">
         <v>24</v>
@@ -7458,13 +7458,13 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B186" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C186" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D186">
         <v>24</v>
@@ -7484,13 +7484,13 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B187" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C187" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D187">
         <v>6</v>
@@ -7510,13 +7510,13 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B188" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C188" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D188">
         <v>6</v>
@@ -7536,13 +7536,13 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B189" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C189" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D189">
         <v>6</v>
@@ -7562,13 +7562,13 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B190" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C190" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D190">
         <v>6</v>
@@ -7588,13 +7588,13 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B191" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C191" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D191">
         <v>6</v>
@@ -7614,13 +7614,13 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B192" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C192" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D192">
         <v>6</v>
@@ -7640,13 +7640,13 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B193" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C193" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D193">
         <v>6</v>
@@ -7666,13 +7666,13 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B194" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C194" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D194">
         <v>6</v>
@@ -7692,13 +7692,13 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B195" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C195" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D195">
         <v>6</v>
@@ -7718,13 +7718,13 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B196" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C196" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D196">
         <v>6</v>
@@ -7744,13 +7744,13 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B197" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C197" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D197">
         <v>6</v>
@@ -7770,13 +7770,13 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B198" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C198" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D198">
         <v>6</v>
@@ -7796,13 +7796,13 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B199" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C199" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D199">
         <v>6</v>
@@ -7822,13 +7822,13 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B200" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C200" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D200">
         <v>6</v>
@@ -7848,13 +7848,13 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B201" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C201" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -7868,13 +7868,13 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B202" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C202" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D202">
         <v>12</v>
@@ -7894,13 +7894,13 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B203" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C203" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D203">
         <v>12</v>
@@ -7920,13 +7920,13 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B204" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C204" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D204">
         <v>24</v>
@@ -7946,13 +7946,13 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B205" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C205" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D205">
         <v>6</v>
@@ -7972,13 +7972,13 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B206" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C206" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D206">
         <v>6</v>
@@ -7998,13 +7998,13 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B207" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C207" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D207">
         <v>6</v>
@@ -8024,13 +8024,13 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B208" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C208" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D208">
         <v>6</v>
@@ -8050,13 +8050,13 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B209" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C209" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D209">
         <v>6</v>
@@ -8076,13 +8076,13 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B210" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C210" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D210">
         <v>6</v>
@@ -8102,16 +8102,16 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B211" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C211" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D211" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -8125,13 +8125,13 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B212" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C212" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D212">
         <v>6</v>
@@ -8151,13 +8151,13 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B213" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C213" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D213">
         <v>6</v>
@@ -8177,13 +8177,13 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B214" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C214" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D214">
         <v>6</v>
@@ -8203,13 +8203,13 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B215" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C215" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D215">
         <v>6</v>
@@ -8229,13 +8229,13 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B216" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C216" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D216">
         <v>6</v>
@@ -8255,13 +8255,13 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B217" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C217" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D217">
         <v>6</v>
@@ -8281,13 +8281,13 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B218" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C218" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D218">
         <v>6</v>
@@ -8307,13 +8307,13 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B219" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C219" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D219">
         <v>6</v>
@@ -8333,13 +8333,13 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B220" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C220" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D220">
         <v>12</v>
@@ -8359,13 +8359,13 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B221" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C221" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D221">
         <v>12</v>
@@ -8385,13 +8385,13 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B222" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C222" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D222">
         <v>12</v>
@@ -8411,13 +8411,13 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B223" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C223" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D223">
         <v>12</v>
@@ -8437,13 +8437,13 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B224" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C224" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D224">
         <v>72</v>
@@ -8463,13 +8463,13 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B225" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C225" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D225">
         <v>72</v>
@@ -8489,13 +8489,13 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B226" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C226" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D226">
         <v>24</v>
@@ -8515,13 +8515,13 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B227" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C227" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D227">
         <v>24</v>
@@ -8541,13 +8541,13 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B228" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C228" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D228">
         <v>36</v>
@@ -8567,13 +8567,13 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B229" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C229" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D229">
         <v>36</v>
@@ -8593,13 +8593,13 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B230" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C230" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D230">
         <v>6</v>
@@ -8619,13 +8619,13 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B231" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C231" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D231">
         <v>6</v>
@@ -8645,13 +8645,13 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B232" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C232" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D232">
         <v>24</v>
@@ -8671,13 +8671,13 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B233" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C233" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D233">
         <v>24</v>
@@ -8697,13 +8697,13 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B234" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C234" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D234">
         <v>12</v>
@@ -8723,13 +8723,13 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D235" s="4">
         <v>12</v>
@@ -8749,13 +8749,13 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B236" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C236" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D236">
         <v>12</v>
@@ -8775,13 +8775,13 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B237" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C237" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D237">
         <v>24</v>
@@ -8801,13 +8801,13 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B238" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C238" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D238">
         <v>12</v>
@@ -8827,13 +8827,13 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B239" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C239" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D239">
         <v>12</v>
@@ -8853,13 +8853,13 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B240" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C240" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D240">
         <v>12</v>
@@ -8879,13 +8879,13 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B241" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C241" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D241">
         <v>24</v>
@@ -8905,13 +8905,13 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B242" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C242" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D242">
         <v>12</v>
